--- a/between_states/between_states_relative_data/work_economic_between_2022_excel.xlsx
+++ b/between_states/between_states_relative_data/work_economic_between_2022_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>GEOID</t>
   </si>
@@ -127,12 +127,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -383,12 +377,6 @@
   </si>
   <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1707,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2370,7 +2358,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s" s="15">
         <v>38</v>
@@ -2382,57 +2370,57 @@
         <v>2022</v>
       </c>
       <c r="E11" s="17">
-        <v>36.84</v>
+        <v>22.97</v>
       </c>
       <c r="F11" s="18">
-        <v>-2.33400328303241</v>
+        <v>0.5174519917510489</v>
       </c>
       <c r="G11" s="18">
-        <v>20.82</v>
-      </c>
-      <c r="H11" s="18">
-        <v>38.88</v>
+        <v>56.47</v>
+      </c>
+      <c r="H11" s="19">
+        <v>39</v>
       </c>
       <c r="I11" s="18">
-        <v>-0.53017572552234</v>
-      </c>
-      <c r="J11" s="18">
-        <v>41.16</v>
-      </c>
-      <c r="K11" s="18">
-        <v>10.44</v>
-      </c>
-      <c r="L11" s="19">
-        <v>-3</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0</v>
+        <v>-0.5101286529044921</v>
+      </c>
+      <c r="J11" s="19">
+        <v>41.5</v>
+      </c>
+      <c r="K11" s="19">
+        <v>5</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0.182305017196193</v>
+      </c>
+      <c r="M11" s="18">
+        <v>53.04</v>
       </c>
       <c r="N11" s="18">
-        <v>52.37</v>
+        <v>57.36</v>
       </c>
       <c r="O11" s="18">
-        <v>0.349457143668551</v>
+        <v>-0.514612889858202</v>
       </c>
       <c r="P11" s="18">
-        <v>55.82</v>
+        <v>41.42</v>
       </c>
       <c r="Q11" s="19">
-        <v>44920</v>
-      </c>
-      <c r="R11" s="19">
-        <v>3</v>
-      </c>
-      <c r="S11" s="19">
-        <v>97.7</v>
+        <v>28711</v>
+      </c>
+      <c r="R11" s="18">
+        <v>-0.101452030173045</v>
+      </c>
+      <c r="S11" s="18">
+        <v>48.73</v>
       </c>
       <c r="T11" s="18">
-        <v>43.1</v>
+        <v>48.23</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="15">
         <v>40</v>
@@ -2444,57 +2432,57 @@
         <v>2022</v>
       </c>
       <c r="E12" s="17">
-        <v>22.97</v>
+        <v>23.62</v>
       </c>
       <c r="F12" s="18">
-        <v>0.5174519917510489</v>
-      </c>
-      <c r="G12" s="18">
-        <v>56.47</v>
-      </c>
-      <c r="H12" s="19">
-        <v>39</v>
+        <v>0.383822148304095</v>
+      </c>
+      <c r="G12" s="19">
+        <v>54.8</v>
+      </c>
+      <c r="H12" s="18">
+        <v>39.34</v>
       </c>
       <c r="I12" s="18">
-        <v>-0.5101286529044921</v>
-      </c>
-      <c r="J12" s="19">
-        <v>41.5</v>
-      </c>
-      <c r="K12" s="19">
-        <v>5</v>
+        <v>-0.453328613820588</v>
+      </c>
+      <c r="J12" s="18">
+        <v>42.44</v>
+      </c>
+      <c r="K12" s="18">
+        <v>4.86</v>
       </c>
       <c r="L12" s="18">
-        <v>0.182305017196193</v>
+        <v>0.309918529233528</v>
       </c>
       <c r="M12" s="18">
-        <v>53.04</v>
+        <v>55.17</v>
       </c>
       <c r="N12" s="18">
-        <v>57.36</v>
+        <v>57.43</v>
       </c>
       <c r="O12" s="18">
-        <v>-0.514612889858202</v>
+        <v>-0.526734112773407</v>
       </c>
       <c r="P12" s="18">
-        <v>41.42</v>
+        <v>41.22</v>
       </c>
       <c r="Q12" s="19">
-        <v>28711</v>
+        <v>30043</v>
       </c>
       <c r="R12" s="18">
-        <v>-0.101452030173045</v>
+        <v>0.220469379486084</v>
       </c>
       <c r="S12" s="18">
-        <v>48.73</v>
+        <v>52.76</v>
       </c>
       <c r="T12" s="18">
-        <v>48.23</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s" s="15">
         <v>42</v>
@@ -2506,57 +2494,57 @@
         <v>2022</v>
       </c>
       <c r="E13" s="17">
-        <v>23.62</v>
+        <v>20.35</v>
       </c>
       <c r="F13" s="18">
-        <v>0.383822148304095</v>
+        <v>1.05608305302954</v>
       </c>
       <c r="G13" s="19">
-        <v>54.8</v>
+        <v>63.2</v>
       </c>
       <c r="H13" s="18">
-        <v>39.34</v>
+        <v>43.74</v>
       </c>
       <c r="I13" s="18">
-        <v>-0.453328613820588</v>
-      </c>
-      <c r="J13" s="18">
-        <v>42.44</v>
+        <v>0.281730715500516</v>
+      </c>
+      <c r="J13" s="19">
+        <v>54.7</v>
       </c>
       <c r="K13" s="18">
-        <v>4.86</v>
+        <v>4.29</v>
       </c>
       <c r="L13" s="18">
-        <v>0.309918529233528</v>
+        <v>0.829487828242677</v>
       </c>
       <c r="M13" s="18">
-        <v>55.17</v>
+        <v>63.82</v>
       </c>
       <c r="N13" s="18">
-        <v>57.43</v>
+        <v>52.97</v>
       </c>
       <c r="O13" s="18">
-        <v>-0.526734112773407</v>
+        <v>0.245560947252508</v>
       </c>
       <c r="P13" s="18">
-        <v>41.22</v>
+        <v>54.09</v>
       </c>
       <c r="Q13" s="19">
-        <v>30043</v>
+        <v>37779</v>
       </c>
       <c r="R13" s="18">
-        <v>0.220469379486084</v>
+        <v>2.09012705600487</v>
       </c>
       <c r="S13" s="18">
-        <v>52.76</v>
+        <v>76.13</v>
       </c>
       <c r="T13" s="18">
-        <v>49.28</v>
+        <v>62.39</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s" s="15">
         <v>44</v>
@@ -2568,57 +2556,57 @@
         <v>2022</v>
       </c>
       <c r="E14" s="17">
-        <v>20.35</v>
+        <v>21.91</v>
       </c>
       <c r="F14" s="18">
-        <v>1.05608305302954</v>
-      </c>
-      <c r="G14" s="19">
-        <v>63.2</v>
+        <v>0.735371428756851</v>
+      </c>
+      <c r="G14" s="18">
+        <v>59.19</v>
       </c>
       <c r="H14" s="18">
-        <v>43.74</v>
+        <v>47.23</v>
       </c>
       <c r="I14" s="18">
-        <v>0.281730715500516</v>
-      </c>
-      <c r="J14" s="19">
-        <v>54.7</v>
+        <v>0.864766410802937</v>
+      </c>
+      <c r="J14" s="18">
+        <v>64.41</v>
       </c>
       <c r="K14" s="18">
-        <v>4.29</v>
+        <v>4.33</v>
       </c>
       <c r="L14" s="18">
-        <v>0.829487828242677</v>
+        <v>0.793026824803439</v>
       </c>
       <c r="M14" s="18">
-        <v>63.82</v>
+        <v>63.22</v>
       </c>
       <c r="N14" s="18">
-        <v>52.97</v>
+        <v>50.68</v>
       </c>
       <c r="O14" s="18">
-        <v>0.245560947252508</v>
-      </c>
-      <c r="P14" s="18">
-        <v>54.09</v>
+        <v>0.64209809690707</v>
+      </c>
+      <c r="P14" s="19">
+        <v>60.7</v>
       </c>
       <c r="Q14" s="19">
-        <v>37779</v>
+        <v>24448</v>
       </c>
       <c r="R14" s="18">
-        <v>2.09012705600487</v>
+        <v>-1.13174555072625</v>
       </c>
       <c r="S14" s="18">
-        <v>76.13</v>
+        <v>35.85</v>
       </c>
       <c r="T14" s="18">
-        <v>62.39</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s" s="15">
         <v>46</v>
@@ -2630,57 +2618,57 @@
         <v>2022</v>
       </c>
       <c r="E15" s="17">
-        <v>21.91</v>
+        <v>24.87</v>
       </c>
       <c r="F15" s="18">
-        <v>0.735371428756851</v>
+        <v>0.126841680136876</v>
       </c>
       <c r="G15" s="18">
-        <v>59.19</v>
+        <v>51.59</v>
       </c>
       <c r="H15" s="18">
-        <v>47.23</v>
+        <v>41.72</v>
       </c>
       <c r="I15" s="18">
-        <v>0.864766410802937</v>
+        <v>-0.0557283402332644</v>
       </c>
       <c r="J15" s="18">
-        <v>64.41</v>
+        <v>49.07</v>
       </c>
       <c r="K15" s="18">
-        <v>4.33</v>
+        <v>6.42</v>
       </c>
       <c r="L15" s="18">
-        <v>0.793026824803439</v>
+        <v>-1.11206060489678</v>
       </c>
       <c r="M15" s="18">
-        <v>63.22</v>
+        <v>31.47</v>
       </c>
       <c r="N15" s="18">
-        <v>50.68</v>
+        <v>53.54</v>
       </c>
       <c r="O15" s="18">
-        <v>0.64209809690707</v>
-      </c>
-      <c r="P15" s="19">
-        <v>60.7</v>
+        <v>0.146859560657268</v>
+      </c>
+      <c r="P15" s="18">
+        <v>52.45</v>
       </c>
       <c r="Q15" s="19">
-        <v>24448</v>
+        <v>29723</v>
       </c>
       <c r="R15" s="18">
-        <v>-1.13174555072625</v>
+        <v>0.143130902691098</v>
       </c>
       <c r="S15" s="18">
-        <v>35.85</v>
+        <v>51.79</v>
       </c>
       <c r="T15" s="18">
-        <v>56.68</v>
+        <v>47.27</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s" s="15">
         <v>48</v>
@@ -2692,57 +2680,57 @@
         <v>2022</v>
       </c>
       <c r="E16" s="17">
-        <v>24.87</v>
+        <v>25.34</v>
       </c>
       <c r="F16" s="18">
-        <v>0.126841680136876</v>
+        <v>0.0302170241060019</v>
       </c>
       <c r="G16" s="18">
-        <v>51.59</v>
+        <v>50.38</v>
       </c>
       <c r="H16" s="18">
-        <v>41.72</v>
+        <v>42.06</v>
       </c>
       <c r="I16" s="18">
-        <v>-0.0557283402332644</v>
+        <v>0.0010716988506397</v>
       </c>
       <c r="J16" s="18">
-        <v>49.07</v>
+        <v>50.02</v>
       </c>
       <c r="K16" s="18">
-        <v>6.42</v>
+        <v>4.45</v>
       </c>
       <c r="L16" s="18">
-        <v>-1.11206060489678</v>
+        <v>0.683643814485723</v>
       </c>
       <c r="M16" s="18">
-        <v>31.47</v>
+        <v>61.39</v>
       </c>
       <c r="N16" s="18">
-        <v>53.54</v>
+        <v>55.12</v>
       </c>
       <c r="O16" s="18">
-        <v>0.146859560657268</v>
+        <v>-0.126733756571643</v>
       </c>
       <c r="P16" s="18">
-        <v>52.45</v>
+        <v>47.89</v>
       </c>
       <c r="Q16" s="19">
-        <v>29723</v>
+        <v>27847</v>
       </c>
       <c r="R16" s="18">
-        <v>0.143130902691098</v>
+        <v>-0.310265917519507</v>
       </c>
       <c r="S16" s="18">
-        <v>51.79</v>
+        <v>46.12</v>
       </c>
       <c r="T16" s="18">
-        <v>47.27</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s" s="15">
         <v>50</v>
@@ -2754,57 +2742,57 @@
         <v>2022</v>
       </c>
       <c r="E17" s="17">
-        <v>25.34</v>
+        <v>25.61</v>
       </c>
       <c r="F17" s="18">
-        <v>0.0302170241060019</v>
+        <v>-0.0252907570181173</v>
       </c>
       <c r="G17" s="18">
-        <v>50.38</v>
+        <v>49.68</v>
       </c>
       <c r="H17" s="18">
-        <v>42.06</v>
+        <v>48.31</v>
       </c>
       <c r="I17" s="18">
-        <v>0.0010716988506397</v>
+        <v>1.04519006436357</v>
       </c>
       <c r="J17" s="18">
-        <v>50.02</v>
+        <v>67.42</v>
       </c>
       <c r="K17" s="18">
-        <v>4.45</v>
+        <v>4.74</v>
       </c>
       <c r="L17" s="18">
-        <v>0.683643814485723</v>
+        <v>0.419301539551243</v>
       </c>
       <c r="M17" s="18">
-        <v>61.39</v>
+        <v>56.99</v>
       </c>
       <c r="N17" s="18">
-        <v>55.12</v>
+        <v>48.81</v>
       </c>
       <c r="O17" s="18">
-        <v>-0.126733756571643</v>
-      </c>
-      <c r="P17" s="18">
-        <v>47.89</v>
+        <v>0.965907909070401</v>
+      </c>
+      <c r="P17" s="19">
+        <v>66.09999999999999</v>
       </c>
       <c r="Q17" s="19">
-        <v>27847</v>
+        <v>25878</v>
       </c>
       <c r="R17" s="18">
-        <v>-0.310265917519507</v>
+        <v>-0.786139232548655</v>
       </c>
       <c r="S17" s="18">
-        <v>46.12</v>
+        <v>40.17</v>
       </c>
       <c r="T17" s="18">
-        <v>51.16</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s" s="15">
         <v>52</v>
@@ -2816,57 +2804,57 @@
         <v>2022</v>
       </c>
       <c r="E18" s="17">
-        <v>25.61</v>
+        <v>24.86</v>
       </c>
       <c r="F18" s="18">
-        <v>-0.0252907570181173</v>
+        <v>0.128897523882214</v>
       </c>
       <c r="G18" s="18">
-        <v>49.68</v>
+        <v>51.61</v>
       </c>
       <c r="H18" s="18">
-        <v>48.31</v>
+        <v>48.55</v>
       </c>
       <c r="I18" s="18">
-        <v>1.04519006436357</v>
+        <v>1.08528420959927</v>
       </c>
       <c r="J18" s="18">
-        <v>67.42</v>
+        <v>68.09</v>
       </c>
       <c r="K18" s="18">
-        <v>4.74</v>
+        <v>4.54</v>
       </c>
       <c r="L18" s="18">
-        <v>0.419301539551243</v>
+        <v>0.601606556747437</v>
       </c>
       <c r="M18" s="18">
-        <v>56.99</v>
+        <v>60.03</v>
       </c>
       <c r="N18" s="18">
-        <v>48.81</v>
+        <v>48.91</v>
       </c>
       <c r="O18" s="18">
-        <v>0.965907909070401</v>
-      </c>
-      <c r="P18" s="19">
-        <v>66.09999999999999</v>
+        <v>0.948591876334395</v>
+      </c>
+      <c r="P18" s="18">
+        <v>65.81</v>
       </c>
       <c r="Q18" s="19">
-        <v>25878</v>
+        <v>27484</v>
       </c>
       <c r="R18" s="18">
-        <v>-0.786139232548655</v>
+        <v>-0.397996752133819</v>
       </c>
       <c r="S18" s="18">
-        <v>40.17</v>
+        <v>45.03</v>
       </c>
       <c r="T18" s="18">
-        <v>56.07</v>
+        <v>58.11</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s" s="15">
         <v>54</v>
@@ -2878,57 +2866,57 @@
         <v>2022</v>
       </c>
       <c r="E19" s="17">
-        <v>24.86</v>
+        <v>30.83</v>
       </c>
       <c r="F19" s="18">
-        <v>0.128897523882214</v>
+        <v>-1.09844119208442</v>
       </c>
       <c r="G19" s="18">
-        <v>51.61</v>
+        <v>36.27</v>
       </c>
       <c r="H19" s="18">
-        <v>48.55</v>
+        <v>34.15</v>
       </c>
       <c r="I19" s="18">
-        <v>1.08528420959927</v>
+        <v>-1.32036450454253</v>
       </c>
       <c r="J19" s="18">
-        <v>68.09</v>
+        <v>27.99</v>
       </c>
       <c r="K19" s="18">
-        <v>4.54</v>
+        <v>4.09</v>
       </c>
       <c r="L19" s="18">
-        <v>0.601606556747437</v>
+        <v>1.01179284543887</v>
       </c>
       <c r="M19" s="18">
-        <v>60.03</v>
+        <v>66.86</v>
       </c>
       <c r="N19" s="18">
-        <v>48.91</v>
+        <v>63.21</v>
       </c>
       <c r="O19" s="18">
-        <v>0.948591876334395</v>
+        <v>-1.52760080491462</v>
       </c>
       <c r="P19" s="18">
-        <v>65.81</v>
+        <v>24.54</v>
       </c>
       <c r="Q19" s="19">
-        <v>27484</v>
+        <v>26099</v>
       </c>
       <c r="R19" s="18">
-        <v>-0.397996752133819</v>
+        <v>-0.7327273470121179</v>
       </c>
       <c r="S19" s="18">
-        <v>45.03</v>
+        <v>40.84</v>
       </c>
       <c r="T19" s="18">
-        <v>58.11</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s" s="15">
         <v>56</v>
@@ -2940,57 +2928,57 @@
         <v>2022</v>
       </c>
       <c r="E20" s="17">
-        <v>30.83</v>
+        <v>29.49</v>
       </c>
       <c r="F20" s="18">
-        <v>-1.09844119208442</v>
+        <v>-0.822958130209165</v>
       </c>
       <c r="G20" s="18">
-        <v>36.27</v>
+        <v>39.71</v>
       </c>
       <c r="H20" s="18">
-        <v>34.15</v>
+        <v>35.67</v>
       </c>
       <c r="I20" s="18">
-        <v>-1.32036450454253</v>
+        <v>-1.06643491804978</v>
       </c>
       <c r="J20" s="18">
-        <v>27.99</v>
-      </c>
-      <c r="K20" s="18">
-        <v>4.09</v>
+        <v>32.23</v>
+      </c>
+      <c r="K20" s="19">
+        <v>5.4</v>
       </c>
       <c r="L20" s="18">
-        <v>1.01179284543887</v>
+        <v>-0.182305017196193</v>
       </c>
       <c r="M20" s="18">
-        <v>66.86</v>
+        <v>46.96</v>
       </c>
       <c r="N20" s="18">
-        <v>63.21</v>
+        <v>60.36</v>
       </c>
       <c r="O20" s="18">
-        <v>-1.52760080491462</v>
+        <v>-1.03409387193841</v>
       </c>
       <c r="P20" s="18">
-        <v>24.54</v>
+        <v>32.77</v>
       </c>
       <c r="Q20" s="19">
-        <v>26099</v>
+        <v>27339</v>
       </c>
       <c r="R20" s="18">
-        <v>-0.7327273470121179</v>
+        <v>-0.433040749431547</v>
       </c>
       <c r="S20" s="18">
-        <v>40.84</v>
+        <v>44.59</v>
       </c>
       <c r="T20" s="18">
-        <v>39.3</v>
+        <v>39.25</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s" s="15">
         <v>58</v>
@@ -3002,57 +2990,57 @@
         <v>2022</v>
       </c>
       <c r="E21" s="17">
-        <v>29.49</v>
+        <v>27.4</v>
       </c>
       <c r="F21" s="18">
-        <v>-0.822958130209165</v>
+        <v>-0.393286787433575</v>
       </c>
       <c r="G21" s="18">
-        <v>39.71</v>
+        <v>45.08</v>
       </c>
       <c r="H21" s="18">
-        <v>35.67</v>
+        <v>38.52</v>
       </c>
       <c r="I21" s="18">
-        <v>-1.06643491804978</v>
+        <v>-0.590316943375885</v>
       </c>
       <c r="J21" s="18">
-        <v>32.23</v>
-      </c>
-      <c r="K21" s="19">
-        <v>5.4</v>
+        <v>40.16</v>
+      </c>
+      <c r="K21" s="18">
+        <v>4.59</v>
       </c>
       <c r="L21" s="18">
-        <v>-0.182305017196193</v>
+        <v>0.556030302448388</v>
       </c>
       <c r="M21" s="18">
-        <v>46.96</v>
-      </c>
-      <c r="N21" s="18">
-        <v>60.36</v>
+        <v>59.27</v>
+      </c>
+      <c r="N21" s="19">
+        <v>58.7</v>
       </c>
       <c r="O21" s="18">
-        <v>-1.03409387193841</v>
+        <v>-0.7466477285206971</v>
       </c>
       <c r="P21" s="18">
-        <v>32.77</v>
+        <v>37.56</v>
       </c>
       <c r="Q21" s="19">
-        <v>27339</v>
+        <v>26734</v>
       </c>
       <c r="R21" s="18">
-        <v>-0.433040749431547</v>
+        <v>-0.579258807122067</v>
       </c>
       <c r="S21" s="18">
-        <v>44.59</v>
+        <v>42.76</v>
       </c>
       <c r="T21" s="18">
-        <v>39.25</v>
+        <v>44.97</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s" s="15">
         <v>60</v>
@@ -3064,57 +3052,57 @@
         <v>2022</v>
       </c>
       <c r="E22" s="17">
-        <v>27.4</v>
+        <v>21.27</v>
       </c>
       <c r="F22" s="18">
-        <v>-0.393286787433575</v>
+        <v>0.866945428458467</v>
       </c>
       <c r="G22" s="18">
-        <v>45.08</v>
-      </c>
-      <c r="H22" s="18">
-        <v>38.52</v>
+        <v>60.84</v>
+      </c>
+      <c r="H22" s="19">
+        <v>45.2</v>
       </c>
       <c r="I22" s="18">
-        <v>-0.590316943375885</v>
+        <v>0.525636765684337</v>
       </c>
       <c r="J22" s="18">
-        <v>40.16</v>
+        <v>58.76</v>
       </c>
       <c r="K22" s="18">
-        <v>4.59</v>
+        <v>6.18</v>
       </c>
       <c r="L22" s="18">
-        <v>0.556030302448388</v>
+        <v>-0.893294584261344</v>
       </c>
       <c r="M22" s="18">
-        <v>59.27</v>
-      </c>
-      <c r="N22" s="19">
-        <v>58.7</v>
+        <v>35.11</v>
+      </c>
+      <c r="N22" s="18">
+        <v>50.25</v>
       </c>
       <c r="O22" s="18">
-        <v>-0.7466477285206971</v>
+        <v>0.7165570376719</v>
       </c>
       <c r="P22" s="18">
-        <v>37.56</v>
+        <v>61.94</v>
       </c>
       <c r="Q22" s="19">
-        <v>26734</v>
+        <v>37396</v>
       </c>
       <c r="R22" s="18">
-        <v>-0.579258807122067</v>
+        <v>1.99756256659087</v>
       </c>
       <c r="S22" s="18">
-        <v>42.76</v>
+        <v>74.97</v>
       </c>
       <c r="T22" s="18">
-        <v>44.97</v>
+        <v>58.32</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s" s="15">
         <v>62</v>
@@ -3126,57 +3114,57 @@
         <v>2022</v>
       </c>
       <c r="E23" s="17">
-        <v>21.27</v>
+        <v>25.37</v>
       </c>
       <c r="F23" s="18">
-        <v>0.866945428458467</v>
-      </c>
-      <c r="G23" s="18">
-        <v>60.84</v>
+        <v>0.0240494928699884</v>
+      </c>
+      <c r="G23" s="19">
+        <v>50.3</v>
       </c>
       <c r="H23" s="19">
-        <v>45.2</v>
+        <v>41.5</v>
       </c>
       <c r="I23" s="18">
-        <v>0.525636765684337</v>
+        <v>-0.09248130669931939</v>
       </c>
       <c r="J23" s="18">
-        <v>58.76</v>
+        <v>48.46</v>
       </c>
       <c r="K23" s="18">
-        <v>6.18</v>
+        <v>6.24</v>
       </c>
       <c r="L23" s="18">
-        <v>-0.893294584261344</v>
-      </c>
-      <c r="M23" s="18">
-        <v>35.11</v>
+        <v>-0.947986089420203</v>
+      </c>
+      <c r="M23" s="19">
+        <v>34.2</v>
       </c>
       <c r="N23" s="18">
-        <v>50.25</v>
+        <v>54.45</v>
       </c>
       <c r="O23" s="18">
-        <v>0.7165570376719</v>
+        <v>-0.0107163372403971</v>
       </c>
       <c r="P23" s="18">
-        <v>61.94</v>
+        <v>49.82</v>
       </c>
       <c r="Q23" s="19">
-        <v>37396</v>
+        <v>31582</v>
       </c>
       <c r="R23" s="18">
-        <v>1.99756256659087</v>
+        <v>0.59241911632197</v>
       </c>
       <c r="S23" s="18">
-        <v>74.97</v>
+        <v>57.41</v>
       </c>
       <c r="T23" s="18">
-        <v>58.32</v>
+        <v>48.04</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s" s="15">
         <v>64</v>
@@ -3188,57 +3176,57 @@
         <v>2022</v>
       </c>
       <c r="E24" s="17">
-        <v>25.37</v>
+        <v>26.89</v>
       </c>
       <c r="F24" s="18">
-        <v>0.0240494928699884</v>
-      </c>
-      <c r="G24" s="19">
-        <v>50.3</v>
-      </c>
-      <c r="H24" s="19">
-        <v>41.5</v>
+        <v>-0.28843875642135</v>
+      </c>
+      <c r="G24" s="18">
+        <v>46.39</v>
+      </c>
+      <c r="H24" s="18">
+        <v>37.68</v>
       </c>
       <c r="I24" s="18">
-        <v>-0.09248130669931939</v>
+        <v>-0.730646451700824</v>
       </c>
       <c r="J24" s="18">
-        <v>48.46</v>
+        <v>37.82</v>
       </c>
       <c r="K24" s="18">
-        <v>6.24</v>
+        <v>5.64</v>
       </c>
       <c r="L24" s="18">
-        <v>-0.947986089420203</v>
-      </c>
-      <c r="M24" s="19">
-        <v>34.2</v>
+        <v>-0.401071037831624</v>
+      </c>
+      <c r="M24" s="18">
+        <v>43.32</v>
       </c>
       <c r="N24" s="18">
-        <v>54.45</v>
+        <v>58.18</v>
       </c>
       <c r="O24" s="18">
-        <v>-0.0107163372403971</v>
+        <v>-0.65660435829346</v>
       </c>
       <c r="P24" s="18">
-        <v>49.82</v>
+        <v>39.06</v>
       </c>
       <c r="Q24" s="19">
-        <v>31582</v>
+        <v>25398</v>
       </c>
       <c r="R24" s="18">
-        <v>0.59241911632197</v>
+        <v>-0.902146947741134</v>
       </c>
       <c r="S24" s="18">
-        <v>57.41</v>
+        <v>38.72</v>
       </c>
       <c r="T24" s="18">
-        <v>48.04</v>
+        <v>41.06</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s" s="15">
         <v>66</v>
@@ -3250,57 +3238,57 @@
         <v>2022</v>
       </c>
       <c r="E25" s="17">
-        <v>26.89</v>
+        <v>24.8</v>
       </c>
       <c r="F25" s="18">
-        <v>-0.28843875642135</v>
+        <v>0.14123258635424</v>
       </c>
       <c r="G25" s="18">
-        <v>46.39</v>
+        <v>51.77</v>
       </c>
       <c r="H25" s="18">
-        <v>37.68</v>
+        <v>49.57</v>
       </c>
       <c r="I25" s="18">
-        <v>-0.730646451700824</v>
+        <v>1.25568432685098</v>
       </c>
       <c r="J25" s="18">
-        <v>37.82</v>
+        <v>70.93000000000001</v>
       </c>
       <c r="K25" s="18">
-        <v>5.64</v>
+        <v>5.87</v>
       </c>
       <c r="L25" s="18">
-        <v>-0.401071037831624</v>
+        <v>-0.610721807607246</v>
       </c>
       <c r="M25" s="18">
-        <v>43.32</v>
-      </c>
-      <c r="N25" s="18">
-        <v>58.18</v>
+        <v>39.82</v>
+      </c>
+      <c r="N25" s="19">
+        <v>46.5</v>
       </c>
       <c r="O25" s="18">
-        <v>-0.65660435829346</v>
+        <v>1.36590826527217</v>
       </c>
       <c r="P25" s="18">
-        <v>39.06</v>
+        <v>72.77</v>
       </c>
       <c r="Q25" s="19">
-        <v>25398</v>
+        <v>27124</v>
       </c>
       <c r="R25" s="18">
-        <v>-0.902146947741134</v>
+        <v>-0.485002538528178</v>
       </c>
       <c r="S25" s="18">
-        <v>38.72</v>
+        <v>43.94</v>
       </c>
       <c r="T25" s="18">
-        <v>41.06</v>
+        <v>55.84</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s" s="15">
         <v>68</v>
@@ -3312,57 +3300,57 @@
         <v>2022</v>
       </c>
       <c r="E26" s="17">
-        <v>24.8</v>
+        <v>30.13</v>
       </c>
       <c r="F26" s="18">
-        <v>0.14123258635424</v>
+        <v>-0.954532129910781</v>
       </c>
       <c r="G26" s="18">
-        <v>51.77</v>
+        <v>38.07</v>
       </c>
       <c r="H26" s="18">
-        <v>49.57</v>
+        <v>33.46</v>
       </c>
       <c r="I26" s="18">
-        <v>1.25568432685098</v>
+        <v>-1.43563517209516</v>
       </c>
       <c r="J26" s="18">
-        <v>70.93000000000001</v>
+        <v>26.07</v>
       </c>
       <c r="K26" s="18">
-        <v>5.87</v>
+        <v>4.43</v>
       </c>
       <c r="L26" s="18">
-        <v>-0.610721807607246</v>
-      </c>
-      <c r="M26" s="18">
-        <v>39.82</v>
-      </c>
-      <c r="N26" s="19">
-        <v>46.5</v>
+        <v>0.701874316205343</v>
+      </c>
+      <c r="M26" s="19">
+        <v>61.7</v>
+      </c>
+      <c r="N26" s="18">
+        <v>63.54</v>
       </c>
       <c r="O26" s="18">
-        <v>1.36590826527217</v>
+        <v>-1.58474371294344</v>
       </c>
       <c r="P26" s="18">
-        <v>72.77</v>
+        <v>23.59</v>
       </c>
       <c r="Q26" s="19">
-        <v>27124</v>
+        <v>25649</v>
       </c>
       <c r="R26" s="18">
-        <v>-0.485002538528178</v>
+        <v>-0.841484580005067</v>
       </c>
       <c r="S26" s="18">
-        <v>43.94</v>
+        <v>39.48</v>
       </c>
       <c r="T26" s="18">
-        <v>55.84</v>
+        <v>37.78</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s" s="15">
         <v>70</v>
@@ -3374,57 +3362,57 @@
         <v>2022</v>
       </c>
       <c r="E27" s="17">
-        <v>30.13</v>
+        <v>27.62</v>
       </c>
       <c r="F27" s="18">
-        <v>-0.954532129910781</v>
+        <v>-0.438515349831006</v>
       </c>
       <c r="G27" s="18">
-        <v>38.07</v>
-      </c>
-      <c r="H27" s="18">
-        <v>33.46</v>
+        <v>44.52</v>
+      </c>
+      <c r="H27" s="19">
+        <v>39.7</v>
       </c>
       <c r="I27" s="18">
-        <v>-1.43563517209516</v>
+        <v>-0.393187395967044</v>
       </c>
       <c r="J27" s="18">
-        <v>26.07</v>
+        <v>43.45</v>
       </c>
       <c r="K27" s="18">
-        <v>4.43</v>
+        <v>4.51</v>
       </c>
       <c r="L27" s="18">
-        <v>0.701874316205343</v>
-      </c>
-      <c r="M27" s="19">
-        <v>61.7</v>
+        <v>0.628952309326866</v>
+      </c>
+      <c r="M27" s="18">
+        <v>60.48</v>
       </c>
       <c r="N27" s="18">
-        <v>63.54</v>
+        <v>57.11</v>
       </c>
       <c r="O27" s="18">
-        <v>-1.58474371294344</v>
+        <v>-0.471322808018184</v>
       </c>
       <c r="P27" s="18">
-        <v>23.59</v>
+        <v>42.14</v>
       </c>
       <c r="Q27" s="19">
-        <v>25649</v>
+        <v>27588</v>
       </c>
       <c r="R27" s="18">
-        <v>-0.841484580005067</v>
+        <v>-0.372861747175449</v>
       </c>
       <c r="S27" s="18">
-        <v>39.48</v>
+        <v>45.34</v>
       </c>
       <c r="T27" s="18">
-        <v>37.78</v>
+        <v>47.19</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s" s="15">
         <v>72</v>
@@ -3436,57 +3424,57 @@
         <v>2022</v>
       </c>
       <c r="E28" s="17">
-        <v>27.62</v>
+        <v>24.05</v>
       </c>
       <c r="F28" s="18">
-        <v>-0.438515349831006</v>
+        <v>0.295420867254572</v>
       </c>
       <c r="G28" s="18">
-        <v>44.52</v>
-      </c>
-      <c r="H28" s="19">
-        <v>39.7</v>
+        <v>53.69</v>
+      </c>
+      <c r="H28" s="18">
+        <v>47.55</v>
       </c>
       <c r="I28" s="18">
-        <v>-0.393187395967044</v>
-      </c>
-      <c r="J28" s="18">
-        <v>43.45</v>
+        <v>0.918225271117199</v>
+      </c>
+      <c r="J28" s="19">
+        <v>65.3</v>
       </c>
       <c r="K28" s="18">
-        <v>4.51</v>
+        <v>4.57</v>
       </c>
       <c r="L28" s="18">
-        <v>0.628952309326866</v>
+        <v>0.574260804168007</v>
       </c>
       <c r="M28" s="18">
-        <v>60.48</v>
+        <v>59.57</v>
       </c>
       <c r="N28" s="18">
-        <v>57.11</v>
+        <v>49.26</v>
       </c>
       <c r="O28" s="18">
-        <v>-0.471322808018184</v>
-      </c>
-      <c r="P28" s="18">
-        <v>42.14</v>
+        <v>0.88798576175837</v>
+      </c>
+      <c r="P28" s="19">
+        <v>64.8</v>
       </c>
       <c r="Q28" s="19">
-        <v>27588</v>
+        <v>24677</v>
       </c>
       <c r="R28" s="18">
-        <v>-0.372861747175449</v>
+        <v>-1.07640020326984</v>
       </c>
       <c r="S28" s="18">
-        <v>45.34</v>
+        <v>36.54</v>
       </c>
       <c r="T28" s="18">
-        <v>47.19</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s" s="15">
         <v>74</v>
@@ -3498,57 +3486,57 @@
         <v>2022</v>
       </c>
       <c r="E29" s="17">
-        <v>24.05</v>
+        <v>23.44</v>
       </c>
       <c r="F29" s="18">
-        <v>0.295420867254572</v>
+        <v>0.420827335720174</v>
       </c>
       <c r="G29" s="18">
-        <v>53.69</v>
+        <v>55.26</v>
       </c>
       <c r="H29" s="18">
-        <v>47.55</v>
+        <v>52.16</v>
       </c>
       <c r="I29" s="18">
-        <v>0.918225271117199</v>
-      </c>
-      <c r="J29" s="19">
-        <v>65.3</v>
+        <v>1.68836697751954</v>
+      </c>
+      <c r="J29" s="18">
+        <v>78.14</v>
       </c>
       <c r="K29" s="18">
-        <v>4.57</v>
+        <v>4.24</v>
       </c>
       <c r="L29" s="18">
-        <v>0.574260804168007</v>
+        <v>0.875064082541726</v>
       </c>
       <c r="M29" s="18">
-        <v>59.57</v>
+        <v>64.58</v>
       </c>
       <c r="N29" s="18">
-        <v>49.26</v>
+        <v>45.39</v>
       </c>
       <c r="O29" s="18">
-        <v>0.88798576175837</v>
-      </c>
-      <c r="P29" s="19">
-        <v>64.8</v>
+        <v>1.55811622864184</v>
+      </c>
+      <c r="P29" s="18">
+        <v>75.97</v>
       </c>
       <c r="Q29" s="19">
-        <v>24677</v>
+        <v>28683</v>
       </c>
       <c r="R29" s="18">
-        <v>-1.07640020326984</v>
+        <v>-0.108219146892606</v>
       </c>
       <c r="S29" s="18">
-        <v>36.54</v>
+        <v>48.65</v>
       </c>
       <c r="T29" s="18">
-        <v>55.98</v>
+        <v>64.52</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s" s="15">
         <v>76</v>
@@ -3560,57 +3548,57 @@
         <v>2022</v>
       </c>
       <c r="E30" s="17">
-        <v>23.44</v>
+        <v>22.34</v>
       </c>
       <c r="F30" s="18">
-        <v>0.420827335720174</v>
+        <v>0.646970147707327</v>
       </c>
       <c r="G30" s="18">
-        <v>55.26</v>
+        <v>58.09</v>
       </c>
       <c r="H30" s="18">
-        <v>52.16</v>
+        <v>43.28</v>
       </c>
       <c r="I30" s="18">
-        <v>1.68836697751954</v>
+        <v>0.204883603798764</v>
       </c>
       <c r="J30" s="18">
-        <v>78.14</v>
+        <v>53.41</v>
       </c>
       <c r="K30" s="18">
-        <v>4.24</v>
+        <v>6.12</v>
       </c>
       <c r="L30" s="18">
-        <v>0.875064082541726</v>
+        <v>-0.838603079102487</v>
       </c>
       <c r="M30" s="18">
-        <v>64.58</v>
+        <v>36.02</v>
       </c>
       <c r="N30" s="18">
-        <v>45.39</v>
+        <v>51.93</v>
       </c>
       <c r="O30" s="18">
-        <v>1.55811622864184</v>
+        <v>0.425647687706981</v>
       </c>
       <c r="P30" s="18">
-        <v>75.97</v>
+        <v>57.09</v>
       </c>
       <c r="Q30" s="19">
-        <v>28683</v>
+        <v>32991</v>
       </c>
       <c r="R30" s="18">
-        <v>-0.108219146892606</v>
+        <v>0.932950096959892</v>
       </c>
       <c r="S30" s="18">
-        <v>48.65</v>
+        <v>61.66</v>
       </c>
       <c r="T30" s="18">
-        <v>64.52</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s" s="15">
         <v>78</v>
@@ -3622,57 +3610,57 @@
         <v>2022</v>
       </c>
       <c r="E31" s="17">
-        <v>22.34</v>
+        <v>21.07</v>
       </c>
       <c r="F31" s="18">
-        <v>0.646970147707327</v>
+        <v>0.908062303365222</v>
       </c>
       <c r="G31" s="18">
-        <v>58.09</v>
+        <v>61.35</v>
       </c>
       <c r="H31" s="18">
-        <v>43.28</v>
+        <v>45.34</v>
       </c>
       <c r="I31" s="18">
-        <v>0.204883603798764</v>
+        <v>0.549025017071827</v>
       </c>
       <c r="J31" s="18">
-        <v>53.41</v>
-      </c>
-      <c r="K31" s="18">
-        <v>6.12</v>
+        <v>59.15</v>
+      </c>
+      <c r="K31" s="19">
+        <v>4.8</v>
       </c>
       <c r="L31" s="18">
-        <v>-0.838603079102487</v>
+        <v>0.364610034392386</v>
       </c>
       <c r="M31" s="18">
-        <v>36.02</v>
+        <v>56.08</v>
       </c>
       <c r="N31" s="18">
-        <v>51.93</v>
+        <v>51.71</v>
       </c>
       <c r="O31" s="18">
-        <v>0.425647687706981</v>
+        <v>0.463742959726197</v>
       </c>
       <c r="P31" s="18">
-        <v>57.09</v>
+        <v>57.73</v>
       </c>
       <c r="Q31" s="19">
-        <v>32991</v>
+        <v>30080</v>
       </c>
       <c r="R31" s="18">
-        <v>0.932950096959892</v>
+        <v>0.229411640865504</v>
       </c>
       <c r="S31" s="18">
-        <v>61.66</v>
+        <v>52.87</v>
       </c>
       <c r="T31" s="18">
-        <v>53.26</v>
+        <v>57.43</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="15">
         <v>80</v>
@@ -3684,57 +3672,57 @@
         <v>2022</v>
       </c>
       <c r="E32" s="17">
-        <v>21.07</v>
+        <v>20.25</v>
       </c>
       <c r="F32" s="18">
-        <v>0.908062303365222</v>
+        <v>1.07664149048292</v>
       </c>
       <c r="G32" s="18">
-        <v>61.35</v>
+        <v>63.46</v>
       </c>
       <c r="H32" s="18">
-        <v>45.34</v>
+        <v>41.66</v>
       </c>
       <c r="I32" s="18">
-        <v>0.549025017071827</v>
-      </c>
-      <c r="J32" s="18">
-        <v>59.15</v>
-      </c>
-      <c r="K32" s="19">
-        <v>4.8</v>
+        <v>-0.06575187654218891</v>
+      </c>
+      <c r="J32" s="19">
+        <v>48.9</v>
+      </c>
+      <c r="K32" s="18">
+        <v>6.27</v>
       </c>
       <c r="L32" s="18">
-        <v>0.364610034392386</v>
+        <v>-0.975331841999631</v>
       </c>
       <c r="M32" s="18">
-        <v>56.08</v>
+        <v>33.74</v>
       </c>
       <c r="N32" s="18">
-        <v>51.71</v>
+        <v>53.83</v>
       </c>
       <c r="O32" s="18">
-        <v>0.463742959726197</v>
+        <v>0.0966430657228475</v>
       </c>
       <c r="P32" s="18">
-        <v>57.73</v>
+        <v>51.61</v>
       </c>
       <c r="Q32" s="19">
-        <v>30080</v>
+        <v>34161</v>
       </c>
       <c r="R32" s="18">
-        <v>0.229411640865504</v>
-      </c>
-      <c r="S32" s="18">
-        <v>52.87</v>
+        <v>1.21571890274156</v>
+      </c>
+      <c r="S32" s="19">
+        <v>65.2</v>
       </c>
       <c r="T32" s="18">
-        <v>57.43</v>
+        <v>52.58</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s" s="15">
         <v>82</v>
@@ -3746,57 +3734,57 @@
         <v>2022</v>
       </c>
       <c r="E33" s="17">
-        <v>20.25</v>
+        <v>29.88</v>
       </c>
       <c r="F33" s="18">
-        <v>1.07664149048292</v>
+        <v>-0.903136036277337</v>
       </c>
       <c r="G33" s="18">
-        <v>63.46</v>
+        <v>38.71</v>
       </c>
       <c r="H33" s="18">
-        <v>41.66</v>
+        <v>36.98</v>
       </c>
       <c r="I33" s="18">
-        <v>-0.06575187654218891</v>
-      </c>
-      <c r="J33" s="19">
-        <v>48.9</v>
+        <v>-0.847587708638273</v>
+      </c>
+      <c r="J33" s="18">
+        <v>35.87</v>
       </c>
       <c r="K33" s="18">
-        <v>6.27</v>
+        <v>5.39</v>
       </c>
       <c r="L33" s="18">
-        <v>-0.975331841999631</v>
+        <v>-0.173189766336383</v>
       </c>
       <c r="M33" s="18">
-        <v>33.74</v>
+        <v>47.11</v>
       </c>
       <c r="N33" s="18">
-        <v>53.83</v>
+        <v>58.93</v>
       </c>
       <c r="O33" s="18">
-        <v>0.0966430657228475</v>
+        <v>-0.786474603813513</v>
       </c>
       <c r="P33" s="18">
-        <v>51.61</v>
+        <v>36.89</v>
       </c>
       <c r="Q33" s="19">
-        <v>34161</v>
+        <v>25032</v>
       </c>
       <c r="R33" s="18">
-        <v>1.21571890274156</v>
-      </c>
-      <c r="S33" s="19">
-        <v>65.2</v>
+        <v>-0.990602830575399</v>
+      </c>
+      <c r="S33" s="18">
+        <v>37.62</v>
       </c>
       <c r="T33" s="18">
-        <v>52.58</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s" s="15">
         <v>84</v>
@@ -3808,57 +3796,57 @@
         <v>2022</v>
       </c>
       <c r="E34" s="17">
-        <v>29.88</v>
+        <v>29.09</v>
       </c>
       <c r="F34" s="18">
-        <v>-0.903136036277337</v>
+        <v>-0.740724380395655</v>
       </c>
       <c r="G34" s="18">
-        <v>38.71</v>
+        <v>40.74</v>
       </c>
       <c r="H34" s="18">
-        <v>36.98</v>
+        <v>36.27</v>
       </c>
       <c r="I34" s="18">
-        <v>-0.847587708638273</v>
-      </c>
-      <c r="J34" s="18">
-        <v>35.87</v>
+        <v>-0.966199554960541</v>
+      </c>
+      <c r="J34" s="19">
+        <v>33.9</v>
       </c>
       <c r="K34" s="18">
-        <v>5.39</v>
+        <v>5.88</v>
       </c>
       <c r="L34" s="18">
-        <v>-0.173189766336383</v>
+        <v>-0.6198370584670549</v>
       </c>
       <c r="M34" s="18">
-        <v>47.11</v>
+        <v>39.67</v>
       </c>
       <c r="N34" s="18">
-        <v>58.93</v>
+        <v>59.49</v>
       </c>
       <c r="O34" s="18">
-        <v>-0.786474603813513</v>
+        <v>-0.8834443871351531</v>
       </c>
       <c r="P34" s="18">
-        <v>36.89</v>
+        <v>35.28</v>
       </c>
       <c r="Q34" s="19">
-        <v>25032</v>
+        <v>31488</v>
       </c>
       <c r="R34" s="18">
-        <v>-0.990602830575399</v>
+        <v>0.569700938763442</v>
       </c>
       <c r="S34" s="18">
-        <v>37.62</v>
+        <v>57.12</v>
       </c>
       <c r="T34" s="18">
-        <v>39.24</v>
+        <v>41.34</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s" s="15">
         <v>86</v>
@@ -3870,57 +3858,57 @@
         <v>2022</v>
       </c>
       <c r="E35" s="17">
-        <v>29.09</v>
+        <v>25.21</v>
       </c>
       <c r="F35" s="18">
-        <v>-0.740724380395655</v>
+        <v>0.0569429927953924</v>
       </c>
       <c r="G35" s="18">
-        <v>40.74</v>
+        <v>50.71</v>
       </c>
       <c r="H35" s="18">
-        <v>36.27</v>
+        <v>37.91</v>
       </c>
       <c r="I35" s="18">
-        <v>-0.966199554960541</v>
-      </c>
-      <c r="J35" s="19">
-        <v>33.9</v>
+        <v>-0.692222895849948</v>
+      </c>
+      <c r="J35" s="18">
+        <v>38.46</v>
       </c>
       <c r="K35" s="18">
-        <v>5.88</v>
+        <v>4.82</v>
       </c>
       <c r="L35" s="18">
-        <v>-0.6198370584670549</v>
+        <v>0.346379532672766</v>
       </c>
       <c r="M35" s="18">
-        <v>39.67</v>
+        <v>55.77</v>
       </c>
       <c r="N35" s="18">
-        <v>59.49</v>
+        <v>58.82</v>
       </c>
       <c r="O35" s="18">
-        <v>-0.8834443871351531</v>
+        <v>-0.767426967803905</v>
       </c>
       <c r="P35" s="18">
-        <v>35.28</v>
+        <v>37.21</v>
       </c>
       <c r="Q35" s="19">
-        <v>31488</v>
+        <v>28284</v>
       </c>
       <c r="R35" s="18">
-        <v>0.569700938763442</v>
+        <v>-0.204650560146354</v>
       </c>
       <c r="S35" s="18">
-        <v>57.12</v>
+        <v>47.44</v>
       </c>
       <c r="T35" s="18">
-        <v>41.34</v>
+        <v>45.92</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="14">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s" s="15">
         <v>88</v>
@@ -3932,57 +3920,57 @@
         <v>2022</v>
       </c>
       <c r="E36" s="17">
-        <v>25.21</v>
+        <v>23.9</v>
       </c>
       <c r="F36" s="18">
-        <v>0.0569429927953924</v>
+        <v>0.326258523434638</v>
       </c>
       <c r="G36" s="18">
-        <v>50.71</v>
+        <v>54.08</v>
       </c>
       <c r="H36" s="18">
-        <v>37.91</v>
+        <v>56.58</v>
       </c>
       <c r="I36" s="18">
-        <v>-0.692222895849948</v>
+        <v>2.42676748561028</v>
       </c>
       <c r="J36" s="18">
-        <v>38.46</v>
+        <v>90.45</v>
       </c>
       <c r="K36" s="18">
-        <v>4.82</v>
+        <v>4.01</v>
       </c>
       <c r="L36" s="18">
-        <v>0.346379532672766</v>
+        <v>1.08471485231735</v>
       </c>
       <c r="M36" s="18">
-        <v>55.77</v>
+        <v>68.08</v>
       </c>
       <c r="N36" s="18">
-        <v>58.82</v>
+        <v>41.31</v>
       </c>
       <c r="O36" s="18">
-        <v>-0.767426967803905</v>
+        <v>2.26461036427093</v>
       </c>
       <c r="P36" s="18">
-        <v>37.21</v>
+        <v>87.73999999999999</v>
       </c>
       <c r="Q36" s="19">
-        <v>28284</v>
+        <v>30625</v>
       </c>
       <c r="R36" s="18">
-        <v>-0.204650560146354</v>
+        <v>0.361128734156965</v>
       </c>
       <c r="S36" s="18">
-        <v>47.44</v>
+        <v>54.51</v>
       </c>
       <c r="T36" s="18">
-        <v>45.92</v>
+        <v>70.97</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s" s="15">
         <v>90</v>
@@ -3994,57 +3982,57 @@
         <v>2022</v>
       </c>
       <c r="E37" s="17">
-        <v>23.9</v>
+        <v>28.63</v>
       </c>
       <c r="F37" s="18">
-        <v>0.326258523434638</v>
+        <v>-0.646155568110118</v>
       </c>
       <c r="G37" s="18">
-        <v>54.08</v>
+        <v>41.92</v>
       </c>
       <c r="H37" s="18">
-        <v>56.58</v>
+        <v>40.39</v>
       </c>
       <c r="I37" s="18">
-        <v>2.42676748561028</v>
+        <v>-0.277916728414416</v>
       </c>
       <c r="J37" s="18">
-        <v>90.45</v>
+        <v>45.37</v>
       </c>
       <c r="K37" s="18">
-        <v>4.01</v>
+        <v>5.09</v>
       </c>
       <c r="L37" s="18">
-        <v>1.08471485231735</v>
+        <v>0.100267759457906</v>
       </c>
       <c r="M37" s="18">
-        <v>68.08</v>
+        <v>51.67</v>
       </c>
       <c r="N37" s="18">
-        <v>41.31</v>
+        <v>56.06</v>
       </c>
       <c r="O37" s="18">
-        <v>2.26461036427093</v>
+        <v>-0.289504464290111</v>
       </c>
       <c r="P37" s="18">
-        <v>87.73999999999999</v>
+        <v>45.17</v>
       </c>
       <c r="Q37" s="19">
-        <v>30625</v>
+        <v>26266</v>
       </c>
       <c r="R37" s="18">
-        <v>0.361128734156965</v>
+        <v>-0.692366329434734</v>
       </c>
       <c r="S37" s="18">
-        <v>54.51</v>
+        <v>41.35</v>
       </c>
       <c r="T37" s="18">
-        <v>70.97</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s" s="15">
         <v>92</v>
@@ -4056,57 +4044,57 @@
         <v>2022</v>
       </c>
       <c r="E38" s="17">
-        <v>28.63</v>
+        <v>25.62</v>
       </c>
       <c r="F38" s="18">
-        <v>-0.646155568110118</v>
+        <v>-0.0273466007634554</v>
       </c>
       <c r="G38" s="18">
-        <v>41.92</v>
+        <v>49.66</v>
       </c>
       <c r="H38" s="18">
-        <v>40.39</v>
+        <v>42.19</v>
       </c>
       <c r="I38" s="18">
-        <v>-0.277916728414416</v>
+        <v>0.022789360853308</v>
       </c>
       <c r="J38" s="18">
-        <v>45.37</v>
-      </c>
-      <c r="K38" s="18">
-        <v>5.09</v>
+        <v>50.38</v>
+      </c>
+      <c r="K38" s="19">
+        <v>4.8</v>
       </c>
       <c r="L38" s="18">
-        <v>0.100267759457906</v>
+        <v>0.364610034392386</v>
       </c>
       <c r="M38" s="18">
-        <v>51.67</v>
+        <v>56.08</v>
       </c>
       <c r="N38" s="18">
-        <v>56.06</v>
+        <v>54.42</v>
       </c>
       <c r="O38" s="18">
-        <v>-0.289504464290111</v>
+        <v>-0.0055215274195947</v>
       </c>
       <c r="P38" s="18">
-        <v>45.17</v>
+        <v>49.91</v>
       </c>
       <c r="Q38" s="19">
-        <v>26266</v>
+        <v>29149</v>
       </c>
       <c r="R38" s="18">
-        <v>-0.692366329434734</v>
+        <v>0.0044050099400921</v>
       </c>
       <c r="S38" s="18">
-        <v>41.35</v>
+        <v>50.06</v>
       </c>
       <c r="T38" s="18">
-        <v>45.1</v>
+        <v>51.22</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="14">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s" s="15">
         <v>94</v>
@@ -4118,57 +4106,57 @@
         <v>2022</v>
       </c>
       <c r="E39" s="17">
-        <v>25.62</v>
+        <v>27.23</v>
       </c>
       <c r="F39" s="18">
-        <v>-0.0273466007634554</v>
+        <v>-0.358337443762833</v>
       </c>
       <c r="G39" s="18">
-        <v>49.66</v>
+        <v>45.52</v>
       </c>
       <c r="H39" s="18">
-        <v>42.19</v>
+        <v>43.36</v>
       </c>
       <c r="I39" s="18">
-        <v>0.022789360853308</v>
+        <v>0.218248318877329</v>
       </c>
       <c r="J39" s="18">
-        <v>50.38</v>
-      </c>
-      <c r="K39" s="19">
-        <v>4.8</v>
+        <v>53.64</v>
+      </c>
+      <c r="K39" s="18">
+        <v>5.98</v>
       </c>
       <c r="L39" s="18">
-        <v>0.364610034392386</v>
+        <v>-0.710989567065152</v>
       </c>
       <c r="M39" s="18">
-        <v>56.08</v>
+        <v>38.15</v>
       </c>
       <c r="N39" s="18">
-        <v>54.42</v>
+        <v>52.66</v>
       </c>
       <c r="O39" s="18">
-        <v>-0.0055215274195947</v>
+        <v>0.29924064873413</v>
       </c>
       <c r="P39" s="18">
-        <v>49.91</v>
+        <v>54.99</v>
       </c>
       <c r="Q39" s="19">
-        <v>29149</v>
+        <v>27654</v>
       </c>
       <c r="R39" s="18">
-        <v>0.0044050099400921</v>
+        <v>-0.356910686336483</v>
       </c>
       <c r="S39" s="18">
-        <v>50.06</v>
+        <v>45.54</v>
       </c>
       <c r="T39" s="18">
-        <v>51.22</v>
+        <v>47.57</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s" s="15">
         <v>96</v>
@@ -4180,57 +4168,57 @@
         <v>2022</v>
       </c>
       <c r="E40" s="17">
-        <v>27.23</v>
+        <v>26.73</v>
       </c>
       <c r="F40" s="18">
-        <v>-0.358337443762833</v>
+        <v>-0.255545256495946</v>
       </c>
       <c r="G40" s="18">
-        <v>45.52</v>
-      </c>
-      <c r="H40" s="18">
-        <v>43.36</v>
+        <v>46.81</v>
+      </c>
+      <c r="H40" s="19">
+        <v>40.1</v>
       </c>
       <c r="I40" s="18">
-        <v>0.218248318877329</v>
+        <v>-0.326363820574216</v>
       </c>
       <c r="J40" s="18">
-        <v>53.64</v>
+        <v>44.56</v>
       </c>
       <c r="K40" s="18">
-        <v>5.98</v>
+        <v>5.77</v>
       </c>
       <c r="L40" s="18">
-        <v>-0.710989567065152</v>
+        <v>-0.5195692990091491</v>
       </c>
       <c r="M40" s="18">
-        <v>38.15</v>
+        <v>41.34</v>
       </c>
       <c r="N40" s="18">
-        <v>52.66</v>
+        <v>55.99</v>
       </c>
       <c r="O40" s="18">
-        <v>0.29924064873413</v>
+        <v>-0.277383241374906</v>
       </c>
       <c r="P40" s="18">
-        <v>54.99</v>
+        <v>45.38</v>
       </c>
       <c r="Q40" s="19">
-        <v>27654</v>
+        <v>27743</v>
       </c>
       <c r="R40" s="18">
-        <v>-0.356910686336483</v>
+        <v>-0.335400922477877</v>
       </c>
       <c r="S40" s="18">
-        <v>45.54</v>
+        <v>45.81</v>
       </c>
       <c r="T40" s="18">
-        <v>47.57</v>
+        <v>44.78</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s" s="15">
         <v>98</v>
@@ -4242,57 +4230,57 @@
         <v>2022</v>
       </c>
       <c r="E41" s="17">
-        <v>26.73</v>
+        <v>25.57</v>
       </c>
       <c r="F41" s="18">
-        <v>-0.255545256495946</v>
+        <v>-0.0170673820367665</v>
       </c>
       <c r="G41" s="18">
-        <v>46.81</v>
+        <v>49.79</v>
       </c>
       <c r="H41" s="19">
-        <v>40.1</v>
+        <v>41.2</v>
       </c>
       <c r="I41" s="18">
-        <v>-0.326363820574216</v>
+        <v>-0.14259898824394</v>
       </c>
       <c r="J41" s="18">
-        <v>44.56</v>
+        <v>47.62</v>
       </c>
       <c r="K41" s="18">
-        <v>5.77</v>
+        <v>5.89</v>
       </c>
       <c r="L41" s="18">
-        <v>-0.5195692990091491</v>
+        <v>-0.628952309326865</v>
       </c>
       <c r="M41" s="18">
-        <v>41.34</v>
+        <v>39.52</v>
       </c>
       <c r="N41" s="18">
-        <v>55.99</v>
+        <v>54.29</v>
       </c>
       <c r="O41" s="18">
-        <v>-0.277383241374906</v>
+        <v>0.0169893151372149</v>
       </c>
       <c r="P41" s="18">
-        <v>45.38</v>
+        <v>50.28</v>
       </c>
       <c r="Q41" s="19">
-        <v>27743</v>
+        <v>29656</v>
       </c>
       <c r="R41" s="18">
-        <v>-0.335400922477877</v>
+        <v>0.126938159112148</v>
       </c>
       <c r="S41" s="18">
-        <v>45.81</v>
+        <v>51.59</v>
       </c>
       <c r="T41" s="18">
-        <v>44.78</v>
+        <v>47.76</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s" s="15">
         <v>100</v>
@@ -4304,57 +4292,57 @@
         <v>2022</v>
       </c>
       <c r="E42" s="17">
-        <v>25.57</v>
+        <v>25.22</v>
       </c>
       <c r="F42" s="18">
-        <v>-0.0170673820367665</v>
+        <v>0.0548871490500551</v>
       </c>
       <c r="G42" s="18">
-        <v>49.79</v>
-      </c>
-      <c r="H42" s="19">
-        <v>41.2</v>
+        <v>50.69</v>
+      </c>
+      <c r="H42" s="18">
+        <v>36.78</v>
       </c>
       <c r="I42" s="18">
-        <v>-0.14259898824394</v>
+        <v>-0.880999496334686</v>
       </c>
       <c r="J42" s="18">
-        <v>47.62</v>
+        <v>35.32</v>
       </c>
       <c r="K42" s="18">
-        <v>5.89</v>
+        <v>4.71</v>
       </c>
       <c r="L42" s="18">
-        <v>-0.628952309326865</v>
+        <v>0.446647292130673</v>
       </c>
       <c r="M42" s="18">
-        <v>39.52</v>
+        <v>57.44</v>
       </c>
       <c r="N42" s="18">
-        <v>54.29</v>
+        <v>59.94</v>
       </c>
       <c r="O42" s="18">
-        <v>0.0169893151372149</v>
+        <v>-0.961366534447184</v>
       </c>
       <c r="P42" s="18">
-        <v>50.28</v>
+        <v>33.98</v>
       </c>
       <c r="Q42" s="19">
-        <v>29656</v>
+        <v>28655</v>
       </c>
       <c r="R42" s="18">
-        <v>0.126938159112148</v>
+        <v>-0.114986263612167</v>
       </c>
       <c r="S42" s="18">
-        <v>51.59</v>
+        <v>48.56</v>
       </c>
       <c r="T42" s="18">
-        <v>47.76</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="14">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s" s="15">
         <v>102</v>
@@ -4366,57 +4354,57 @@
         <v>2022</v>
       </c>
       <c r="E43" s="17">
-        <v>25.22</v>
+        <v>25.08</v>
       </c>
       <c r="F43" s="18">
-        <v>0.0548871490500551</v>
+        <v>0.0836689614847837</v>
       </c>
       <c r="G43" s="18">
-        <v>50.69</v>
+        <v>51.05</v>
       </c>
       <c r="H43" s="18">
-        <v>36.78</v>
+        <v>53.02</v>
       </c>
       <c r="I43" s="18">
-        <v>-0.880999496334686</v>
+        <v>1.83203766461412</v>
       </c>
       <c r="J43" s="18">
-        <v>35.32</v>
+        <v>80.53</v>
       </c>
       <c r="K43" s="18">
-        <v>4.71</v>
+        <v>3.85</v>
       </c>
       <c r="L43" s="18">
-        <v>0.446647292130673</v>
+        <v>1.2305588660743</v>
       </c>
       <c r="M43" s="18">
-        <v>57.44</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="N43" s="18">
-        <v>59.94</v>
+        <v>44.67</v>
       </c>
       <c r="O43" s="18">
-        <v>-0.961366534447184</v>
+        <v>1.68279166434109</v>
       </c>
       <c r="P43" s="18">
-        <v>33.98</v>
+        <v>78.05</v>
       </c>
       <c r="Q43" s="19">
-        <v>28655</v>
+        <v>25674</v>
       </c>
       <c r="R43" s="18">
-        <v>-0.114986263612167</v>
+        <v>-0.835442511505458</v>
       </c>
       <c r="S43" s="18">
-        <v>48.56</v>
+        <v>39.56</v>
       </c>
       <c r="T43" s="18">
-        <v>45.2</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s" s="15">
         <v>104</v>
@@ -4428,57 +4416,57 @@
         <v>2022</v>
       </c>
       <c r="E44" s="17">
-        <v>25.08</v>
+        <v>26.93</v>
       </c>
       <c r="F44" s="18">
-        <v>0.0836689614847837</v>
+        <v>-0.296662131402701</v>
       </c>
       <c r="G44" s="18">
-        <v>51.05</v>
+        <v>46.29</v>
       </c>
       <c r="H44" s="18">
-        <v>53.02</v>
+        <v>37.16</v>
       </c>
       <c r="I44" s="18">
-        <v>1.83203766461412</v>
+        <v>-0.8175170997115</v>
       </c>
       <c r="J44" s="18">
-        <v>80.53</v>
+        <v>36.37</v>
       </c>
       <c r="K44" s="18">
-        <v>3.85</v>
+        <v>4.72</v>
       </c>
       <c r="L44" s="18">
-        <v>1.2305588660743</v>
+        <v>0.437532041270863</v>
       </c>
       <c r="M44" s="18">
-        <v>70.51000000000001</v>
+        <v>57.29</v>
       </c>
       <c r="N44" s="18">
-        <v>44.67</v>
+        <v>59.33</v>
       </c>
       <c r="O44" s="18">
-        <v>1.68279166434109</v>
+        <v>-0.855738734757541</v>
       </c>
       <c r="P44" s="18">
-        <v>78.05</v>
+        <v>35.74</v>
       </c>
       <c r="Q44" s="19">
-        <v>25674</v>
+        <v>28975</v>
       </c>
       <c r="R44" s="18">
-        <v>-0.835442511505458</v>
+        <v>-0.0376477868171815</v>
       </c>
       <c r="S44" s="18">
-        <v>39.56</v>
+        <v>49.53</v>
       </c>
       <c r="T44" s="18">
-        <v>63.94</v>
+        <v>45.05</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="14">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s" s="15">
         <v>106</v>
@@ -4490,57 +4478,57 @@
         <v>2022</v>
       </c>
       <c r="E45" s="17">
-        <v>26.93</v>
+        <v>22.12</v>
       </c>
       <c r="F45" s="18">
-        <v>-0.296662131402701</v>
+        <v>0.692198710104758</v>
       </c>
       <c r="G45" s="18">
-        <v>46.29</v>
-      </c>
-      <c r="H45" s="18">
-        <v>37.16</v>
+        <v>58.65</v>
+      </c>
+      <c r="H45" s="19">
+        <v>45.5</v>
       </c>
       <c r="I45" s="18">
-        <v>-0.8175170997115</v>
-      </c>
-      <c r="J45" s="18">
-        <v>36.37</v>
+        <v>0.575754447228957</v>
+      </c>
+      <c r="J45" s="19">
+        <v>59.6</v>
       </c>
       <c r="K45" s="18">
-        <v>4.72</v>
+        <v>5.11</v>
       </c>
       <c r="L45" s="18">
-        <v>0.437532041270863</v>
+        <v>0.0820372577382866</v>
       </c>
       <c r="M45" s="18">
-        <v>57.29</v>
+        <v>51.37</v>
       </c>
       <c r="N45" s="18">
-        <v>59.33</v>
+        <v>51.06</v>
       </c>
       <c r="O45" s="18">
-        <v>-0.855738734757541</v>
-      </c>
-      <c r="P45" s="18">
-        <v>35.74</v>
+        <v>0.576297172510243</v>
+      </c>
+      <c r="P45" s="19">
+        <v>59.6</v>
       </c>
       <c r="Q45" s="19">
-        <v>28975</v>
+        <v>30480</v>
       </c>
       <c r="R45" s="18">
-        <v>-0.0376477868171815</v>
+        <v>0.326084736859237</v>
       </c>
       <c r="S45" s="18">
-        <v>49.53</v>
+        <v>54.08</v>
       </c>
       <c r="T45" s="18">
-        <v>45.05</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s" s="15">
         <v>108</v>
@@ -4552,57 +4540,57 @@
         <v>2022</v>
       </c>
       <c r="E46" s="17">
-        <v>22.12</v>
+        <v>18.06</v>
       </c>
       <c r="F46" s="18">
-        <v>0.692198710104758</v>
+        <v>1.52687127071189</v>
       </c>
       <c r="G46" s="18">
-        <v>58.65</v>
-      </c>
-      <c r="H46" s="19">
-        <v>45.5</v>
+        <v>69.09</v>
+      </c>
+      <c r="H46" s="18">
+        <v>54.03</v>
       </c>
       <c r="I46" s="18">
-        <v>0.575754447228957</v>
-      </c>
-      <c r="J46" s="19">
-        <v>59.6</v>
+        <v>2.00076719248101</v>
+      </c>
+      <c r="J46" s="18">
+        <v>83.34999999999999</v>
       </c>
       <c r="K46" s="18">
-        <v>5.11</v>
+        <v>3.92</v>
       </c>
       <c r="L46" s="18">
-        <v>0.0820372577382866</v>
+        <v>1.16675211005563</v>
       </c>
       <c r="M46" s="18">
-        <v>51.37</v>
+        <v>69.45</v>
       </c>
       <c r="N46" s="18">
-        <v>51.06</v>
+        <v>44.59</v>
       </c>
       <c r="O46" s="18">
-        <v>0.576297172510243</v>
-      </c>
-      <c r="P46" s="19">
-        <v>59.6</v>
+        <v>1.6966444905299</v>
+      </c>
+      <c r="P46" s="18">
+        <v>78.28</v>
       </c>
       <c r="Q46" s="19">
-        <v>30480</v>
+        <v>28818</v>
       </c>
       <c r="R46" s="18">
-        <v>0.326084736859237</v>
+        <v>-0.0755919769947215</v>
       </c>
       <c r="S46" s="18">
-        <v>54.08</v>
+        <v>49.06</v>
       </c>
       <c r="T46" s="18">
-        <v>56.66</v>
+        <v>69.84</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s" s="15">
         <v>110</v>
@@ -4614,57 +4602,57 @@
         <v>2022</v>
       </c>
       <c r="E47" s="17">
-        <v>18.06</v>
+        <v>26.74</v>
       </c>
       <c r="F47" s="18">
-        <v>1.52687127071189</v>
+        <v>-0.257601100241283</v>
       </c>
       <c r="G47" s="18">
-        <v>69.09</v>
+        <v>46.78</v>
       </c>
       <c r="H47" s="18">
-        <v>54.03</v>
+        <v>42.87</v>
       </c>
       <c r="I47" s="18">
-        <v>2.00076719248101</v>
+        <v>0.136389439021115</v>
       </c>
       <c r="J47" s="18">
-        <v>83.34999999999999</v>
+        <v>52.27</v>
       </c>
       <c r="K47" s="18">
-        <v>3.92</v>
+        <v>4.83</v>
       </c>
       <c r="L47" s="18">
-        <v>1.16675211005563</v>
+        <v>0.337264281812957</v>
       </c>
       <c r="M47" s="18">
-        <v>69.45</v>
+        <v>55.62</v>
       </c>
       <c r="N47" s="18">
-        <v>44.59</v>
+        <v>54.93</v>
       </c>
       <c r="O47" s="18">
-        <v>1.6966444905299</v>
+        <v>-0.0938332943732304</v>
       </c>
       <c r="P47" s="18">
-        <v>78.28</v>
+        <v>48.44</v>
       </c>
       <c r="Q47" s="19">
-        <v>28818</v>
+        <v>23809</v>
       </c>
       <c r="R47" s="18">
-        <v>-0.0755919769947215</v>
+        <v>-1.28618082157624</v>
       </c>
       <c r="S47" s="18">
-        <v>49.06</v>
+        <v>33.92</v>
       </c>
       <c r="T47" s="18">
-        <v>69.84</v>
+        <v>47.41</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s" s="15">
         <v>112</v>
@@ -4676,57 +4664,57 @@
         <v>2022</v>
       </c>
       <c r="E48" s="17">
-        <v>26.74</v>
+        <v>21.15</v>
       </c>
       <c r="F48" s="18">
-        <v>-0.257601100241283</v>
+        <v>0.89161555340252</v>
       </c>
       <c r="G48" s="18">
-        <v>46.78</v>
+        <v>61.15</v>
       </c>
       <c r="H48" s="18">
-        <v>42.87</v>
+        <v>43.98</v>
       </c>
       <c r="I48" s="18">
-        <v>0.136389439021115</v>
+        <v>0.321824860736212</v>
       </c>
       <c r="J48" s="18">
-        <v>52.27</v>
+        <v>55.36</v>
       </c>
       <c r="K48" s="18">
-        <v>4.83</v>
+        <v>4.54</v>
       </c>
       <c r="L48" s="18">
-        <v>0.337264281812957</v>
+        <v>0.601606556747437</v>
       </c>
       <c r="M48" s="18">
-        <v>55.62</v>
+        <v>60.03</v>
       </c>
       <c r="N48" s="18">
-        <v>54.93</v>
+        <v>53.31</v>
       </c>
       <c r="O48" s="18">
-        <v>-0.0938332943732304</v>
+        <v>0.186686435950084</v>
       </c>
       <c r="P48" s="18">
-        <v>48.44</v>
+        <v>53.11</v>
       </c>
       <c r="Q48" s="19">
-        <v>23809</v>
+        <v>33221</v>
       </c>
       <c r="R48" s="18">
-        <v>-1.28618082157624</v>
+        <v>0.9885371271562881</v>
       </c>
       <c r="S48" s="18">
-        <v>33.92</v>
+        <v>62.36</v>
       </c>
       <c r="T48" s="18">
-        <v>47.41</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="14">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s" s="15">
         <v>114</v>
@@ -4738,57 +4726,57 @@
         <v>2022</v>
       </c>
       <c r="E49" s="17">
-        <v>21.15</v>
+        <v>22.77</v>
       </c>
       <c r="F49" s="18">
-        <v>0.89161555340252</v>
+        <v>0.558568866657804</v>
       </c>
       <c r="G49" s="18">
-        <v>61.15</v>
-      </c>
-      <c r="H49" s="18">
-        <v>43.98</v>
+        <v>56.98</v>
+      </c>
+      <c r="H49" s="19">
+        <v>43.5</v>
       </c>
       <c r="I49" s="18">
-        <v>0.321824860736212</v>
+        <v>0.241636570264819</v>
       </c>
       <c r="J49" s="18">
-        <v>55.36</v>
+        <v>54.03</v>
       </c>
       <c r="K49" s="18">
-        <v>4.54</v>
+        <v>5.51</v>
       </c>
       <c r="L49" s="18">
-        <v>0.601606556747437</v>
+        <v>-0.282572776654099</v>
       </c>
       <c r="M49" s="18">
-        <v>60.03</v>
+        <v>45.29</v>
       </c>
       <c r="N49" s="18">
-        <v>53.31</v>
+        <v>52.57</v>
       </c>
       <c r="O49" s="18">
-        <v>0.186686435950084</v>
+        <v>0.314825078196536</v>
       </c>
       <c r="P49" s="18">
-        <v>53.11</v>
+        <v>55.25</v>
       </c>
       <c r="Q49" s="19">
-        <v>33221</v>
+        <v>35130</v>
       </c>
       <c r="R49" s="18">
-        <v>0.9885371271562881</v>
+        <v>1.44990947778638</v>
       </c>
       <c r="S49" s="18">
-        <v>62.36</v>
+        <v>68.12</v>
       </c>
       <c r="T49" s="18">
-        <v>58.4</v>
+        <v>55.93</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s" s="15">
         <v>116</v>
@@ -4800,57 +4788,57 @@
         <v>2022</v>
       </c>
       <c r="E50" s="17">
-        <v>22.77</v>
+        <v>30.3</v>
       </c>
       <c r="F50" s="18">
-        <v>0.558568866657804</v>
+        <v>-0.9894814735815231</v>
       </c>
       <c r="G50" s="18">
-        <v>56.98</v>
-      </c>
-      <c r="H50" s="19">
-        <v>43.5</v>
+        <v>37.63</v>
+      </c>
+      <c r="H50" s="18">
+        <v>31.07</v>
       </c>
       <c r="I50" s="18">
-        <v>0.241636570264819</v>
+        <v>-1.8349060350673</v>
       </c>
       <c r="J50" s="18">
-        <v>54.03</v>
+        <v>19.42</v>
       </c>
       <c r="K50" s="18">
-        <v>5.51</v>
+        <v>4.36</v>
       </c>
       <c r="L50" s="18">
-        <v>-0.282572776654099</v>
+        <v>0.7656810722240101</v>
       </c>
       <c r="M50" s="18">
-        <v>45.29</v>
+        <v>62.76</v>
       </c>
       <c r="N50" s="18">
-        <v>52.57</v>
+        <v>65.83</v>
       </c>
       <c r="O50" s="18">
-        <v>0.314825078196536</v>
+        <v>-1.981280862598</v>
       </c>
       <c r="P50" s="18">
-        <v>55.25</v>
+        <v>16.98</v>
       </c>
       <c r="Q50" s="19">
-        <v>35130</v>
+        <v>26955</v>
       </c>
       <c r="R50" s="18">
-        <v>1.44990947778638</v>
+        <v>-0.52584692158553</v>
       </c>
       <c r="S50" s="18">
-        <v>68.12</v>
+        <v>43.43</v>
       </c>
       <c r="T50" s="18">
-        <v>55.93</v>
+        <v>36.04</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s" s="15">
         <v>118</v>
@@ -4862,57 +4850,57 @@
         <v>2022</v>
       </c>
       <c r="E51" s="17">
-        <v>30.3</v>
+        <v>23.83</v>
       </c>
       <c r="F51" s="18">
-        <v>-0.9894814735815231</v>
+        <v>0.340649429652003</v>
       </c>
       <c r="G51" s="18">
-        <v>37.63</v>
+        <v>54.26</v>
       </c>
       <c r="H51" s="18">
-        <v>31.07</v>
+        <v>45.92</v>
       </c>
       <c r="I51" s="18">
-        <v>-1.8349060350673</v>
+        <v>0.645919201391427</v>
       </c>
       <c r="J51" s="18">
-        <v>19.42</v>
+        <v>60.77</v>
       </c>
       <c r="K51" s="18">
-        <v>4.36</v>
+        <v>4.07</v>
       </c>
       <c r="L51" s="18">
-        <v>0.7656810722240101</v>
+        <v>1.03002334715849</v>
       </c>
       <c r="M51" s="18">
-        <v>62.76</v>
+        <v>67.17</v>
       </c>
       <c r="N51" s="18">
-        <v>65.83</v>
+        <v>51.68</v>
       </c>
       <c r="O51" s="18">
-        <v>-1.981280862598</v>
+        <v>0.468937769546999</v>
       </c>
       <c r="P51" s="18">
-        <v>16.98</v>
+        <v>57.82</v>
       </c>
       <c r="Q51" s="19">
-        <v>26955</v>
+        <v>26910</v>
       </c>
       <c r="R51" s="18">
-        <v>-0.52584692158553</v>
+        <v>-0.536722644884825</v>
       </c>
       <c r="S51" s="18">
-        <v>43.43</v>
+        <v>43.29</v>
       </c>
       <c r="T51" s="18">
-        <v>36.04</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s" s="15">
         <v>120</v>
@@ -4924,176 +4912,52 @@
         <v>2022</v>
       </c>
       <c r="E52" s="17">
-        <v>23.83</v>
+        <v>20.89</v>
       </c>
       <c r="F52" s="18">
-        <v>0.340649429652003</v>
+        <v>0.945067490781301</v>
       </c>
       <c r="G52" s="18">
-        <v>54.26</v>
-      </c>
-      <c r="H52" s="18">
-        <v>45.92</v>
+        <v>61.81</v>
+      </c>
+      <c r="H52" s="19">
+        <v>49.9</v>
       </c>
       <c r="I52" s="18">
-        <v>0.645919201391427</v>
+        <v>1.31081377655006</v>
       </c>
       <c r="J52" s="18">
-        <v>60.77</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="K52" s="18">
-        <v>4.07</v>
+        <v>4.35</v>
       </c>
       <c r="L52" s="18">
-        <v>1.03002334715849</v>
+        <v>0.77479632308382</v>
       </c>
       <c r="M52" s="18">
-        <v>67.17</v>
+        <v>62.91</v>
       </c>
       <c r="N52" s="18">
-        <v>51.68</v>
+        <v>47.32</v>
       </c>
       <c r="O52" s="18">
-        <v>0.468937769546999</v>
-      </c>
-      <c r="P52" s="18">
-        <v>57.82</v>
+        <v>1.22391679683691</v>
+      </c>
+      <c r="P52" s="19">
+        <v>70.40000000000001</v>
       </c>
       <c r="Q52" s="19">
-        <v>26910</v>
+        <v>28190</v>
       </c>
       <c r="R52" s="18">
-        <v>-0.536722644884825</v>
+        <v>-0.227368737704881</v>
       </c>
       <c r="S52" s="18">
-        <v>43.29</v>
+        <v>47.16</v>
       </c>
       <c r="T52" s="18">
-        <v>56.66</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="14">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s" s="15">
-        <v>122</v>
-      </c>
-      <c r="C53" t="s" s="15">
-        <v>123</v>
-      </c>
-      <c r="D53" s="16">
-        <v>2022</v>
-      </c>
-      <c r="E53" s="17">
-        <v>20.89</v>
-      </c>
-      <c r="F53" s="18">
-        <v>0.945067490781301</v>
-      </c>
-      <c r="G53" s="18">
-        <v>61.81</v>
-      </c>
-      <c r="H53" s="19">
-        <v>49.9</v>
-      </c>
-      <c r="I53" s="18">
-        <v>1.31081377655006</v>
-      </c>
-      <c r="J53" s="18">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="K53" s="18">
-        <v>4.35</v>
-      </c>
-      <c r="L53" s="18">
-        <v>0.77479632308382</v>
-      </c>
-      <c r="M53" s="18">
-        <v>62.91</v>
-      </c>
-      <c r="N53" s="18">
-        <v>47.32</v>
-      </c>
-      <c r="O53" s="18">
-        <v>1.22391679683691</v>
-      </c>
-      <c r="P53" s="19">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="Q53" s="19">
-        <v>28190</v>
-      </c>
-      <c r="R53" s="18">
-        <v>-0.227368737704881</v>
-      </c>
-      <c r="S53" s="18">
-        <v>47.16</v>
-      </c>
-      <c r="T53" s="18">
         <v>62.83</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="14">
-        <v>72</v>
-      </c>
-      <c r="B54" t="s" s="15">
-        <v>124</v>
-      </c>
-      <c r="C54" t="s" s="15">
-        <v>125</v>
-      </c>
-      <c r="D54" s="16">
-        <v>2022</v>
-      </c>
-      <c r="E54" s="17">
-        <v>50.21</v>
-      </c>
-      <c r="F54" s="18">
-        <v>-3</v>
-      </c>
-      <c r="G54" s="18">
-        <v>0</v>
-      </c>
-      <c r="H54" s="18">
-        <v>25.91</v>
-      </c>
-      <c r="I54" s="18">
-        <v>-2.69693015763478</v>
-      </c>
-      <c r="J54" s="18">
-        <v>5.05</v>
-      </c>
-      <c r="K54" s="18">
-        <v>5.52</v>
-      </c>
-      <c r="L54" s="18">
-        <v>-0.291688027513908</v>
-      </c>
-      <c r="M54" s="18">
-        <v>45.14</v>
-      </c>
-      <c r="N54" s="18">
-        <v>69.88</v>
-      </c>
-      <c r="O54" s="18">
-        <v>-2.68258018840629</v>
-      </c>
-      <c r="P54" s="18">
-        <v>5.29</v>
-      </c>
-      <c r="Q54" s="18">
-        <v>17102</v>
-      </c>
-      <c r="R54" s="18">
-        <v>-2.90714695865114</v>
-      </c>
-      <c r="S54" s="18">
-        <v>13.66</v>
-      </c>
-      <c r="T54" s="18">
-        <v>13.83</v>
       </c>
     </row>
   </sheetData>

--- a/between_states/between_states_relative_data/work_economic_between_2022_excel.xlsx
+++ b/between_states/between_states_relative_data/work_economic_between_2022_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>GEOID</t>
   </si>
@@ -25,6 +25,24 @@
     <t>year</t>
   </si>
   <si>
+    <t>Work Economic Relative Score</t>
+  </si>
+  <si>
+    <t>Below Poverty Relative Score</t>
+  </si>
+  <si>
+    <t>Employment Relative Score</t>
+  </si>
+  <si>
+    <t>Unemployment Relative Score</t>
+  </si>
+  <si>
+    <t>Not in Labor Force Relative Score</t>
+  </si>
+  <si>
+    <t>Median Individual Income Relative Score</t>
+  </si>
+  <si>
     <t>pwd_below_poverty_pct</t>
   </si>
   <si>
@@ -68,9 +86,6 @@
   </si>
   <si>
     <t>REL_index_pwd_groteq_16_med_individual_income</t>
-  </si>
-  <si>
-    <t>Work Economic Relative Score</t>
   </si>
   <si>
     <t>United States</t>
@@ -410,7 +425,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +480,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -509,66 +530,6 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
@@ -585,7 +546,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -593,58 +554,49 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="59" fontId="0" fillId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="9" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="59" fontId="0" fillId="10" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,6 +618,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffb1e7ff"/>
       <rgbColor rgb="ffffbebb"/>
       <rgbColor rgb="ffffe9ba"/>
       <rgbColor rgb="fffefdb9"/>
@@ -1707,7 +1660,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1717,23 +1670,24 @@
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.17188" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.17188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6719" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33" style="1" customWidth="1"/>
-    <col min="18" max="18" width="34.6719" style="1" customWidth="1"/>
-    <col min="19" max="19" width="39" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.1016" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="5" max="9" width="28.9609" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.8203" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.3516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.3516" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.8516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.8516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.3516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6719" style="1" customWidth="1"/>
+    <col min="23" max="23" width="33" style="1" customWidth="1"/>
+    <col min="24" max="24" width="34.6719" style="1" customWidth="1"/>
+    <col min="25" max="25" width="39" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.7" customHeight="1">
@@ -1758,3206 +1712,3986 @@
       <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="5">
+      <c r="K1" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="5">
+      <c r="L1" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="M1" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="6">
+      <c r="N1" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="6">
+      <c r="O1" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="6">
+      <c r="P1" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="7">
+      <c r="Q1" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="7">
+      <c r="R1" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="7">
+      <c r="S1" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" t="s" s="7">
         <v>19</v>
+      </c>
+      <c r="U1" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="8">
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="20.35" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9">
         <v>2022</v>
       </c>
       <c r="E2" s="11">
+        <v>48.87</v>
+      </c>
+      <c r="F2" s="11">
+        <v>51.46</v>
+      </c>
+      <c r="G2" s="11">
+        <v>46.76</v>
+      </c>
+      <c r="H2" s="11">
+        <v>48.33</v>
+      </c>
+      <c r="I2" s="11">
+        <v>47.02</v>
+      </c>
+      <c r="J2" s="11">
+        <v>50.76</v>
+      </c>
+      <c r="K2" s="11">
         <v>24.92</v>
       </c>
-      <c r="F2" s="12">
+      <c r="L2" s="11">
         <v>0.116562461410187</v>
       </c>
-      <c r="G2" s="12">
+      <c r="M2" s="11">
         <v>51.46</v>
       </c>
-      <c r="H2" s="12">
+      <c r="N2" s="11">
         <v>40.89</v>
       </c>
-      <c r="I2" s="12">
+      <c r="O2" s="11">
         <v>-0.194387259173382</v>
       </c>
-      <c r="J2" s="12">
+      <c r="P2" s="11">
         <v>46.76</v>
       </c>
-      <c r="K2" s="12">
+      <c r="Q2" s="11">
         <v>5.31</v>
       </c>
-      <c r="L2" s="12">
+      <c r="R2" s="11">
         <v>-0.100267759457906</v>
       </c>
-      <c r="M2" s="12">
+      <c r="S2" s="11">
         <v>48.33</v>
       </c>
-      <c r="N2" s="12">
+      <c r="T2" s="11">
         <v>55.42</v>
       </c>
-      <c r="O2" s="12">
+      <c r="U2" s="11">
         <v>-0.178681854779665</v>
       </c>
-      <c r="P2" s="12">
+      <c r="V2" s="11">
         <v>47.02</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="W2" s="12">
         <v>29382</v>
       </c>
-      <c r="R2" s="12">
+      <c r="X2" s="11">
         <v>0.0607170883564413</v>
       </c>
-      <c r="S2" s="12">
+      <c r="Y2" s="11">
         <v>50.76</v>
-      </c>
-      <c r="T2" s="12">
-        <v>48.87</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="B3" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="D3" s="13">
         <v>2022</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
+        <v>41.8</v>
+      </c>
+      <c r="F3" s="15">
+        <v>45.21</v>
+      </c>
+      <c r="G3" s="15">
+        <v>27.27</v>
+      </c>
+      <c r="H3" s="15">
+        <v>66.56</v>
+      </c>
+      <c r="I3" s="15">
+        <v>24.34</v>
+      </c>
+      <c r="J3" s="15">
+        <v>45.64</v>
+      </c>
+      <c r="K3" s="15">
         <v>27.35</v>
       </c>
-      <c r="F3" s="18">
+      <c r="L3" s="15">
         <v>-0.383007568706886</v>
       </c>
-      <c r="G3" s="18">
+      <c r="M3" s="15">
         <v>45.21</v>
       </c>
-      <c r="H3" s="18">
+      <c r="N3" s="15">
         <v>33.89</v>
       </c>
-      <c r="I3" s="18">
+      <c r="O3" s="15">
         <v>-1.36379982854787</v>
       </c>
-      <c r="J3" s="18">
+      <c r="P3" s="15">
         <v>27.27</v>
       </c>
-      <c r="K3" s="18">
+      <c r="Q3" s="15">
         <v>4.11</v>
       </c>
-      <c r="L3" s="18">
+      <c r="R3" s="15">
         <v>0.993562343719251</v>
       </c>
-      <c r="M3" s="18">
+      <c r="S3" s="15">
         <v>66.56</v>
       </c>
-      <c r="N3" s="18">
+      <c r="T3" s="15">
         <v>63.28</v>
       </c>
-      <c r="O3" s="18">
+      <c r="U3" s="15">
         <v>-1.53972202782982</v>
       </c>
-      <c r="P3" s="18">
+      <c r="V3" s="15">
         <v>24.34</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="W3" s="16">
         <v>27689</v>
       </c>
-      <c r="R3" s="18">
+      <c r="X3" s="15">
         <v>-0.348451790437031</v>
       </c>
-      <c r="S3" s="18">
+      <c r="Y3" s="15">
         <v>45.64</v>
-      </c>
-      <c r="T3" s="18">
-        <v>41.8</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="B4" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13">
         <v>2022</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
+        <v>54.91</v>
+      </c>
+      <c r="F4" s="15">
+        <v>61.94</v>
+      </c>
+      <c r="G4" s="15">
+        <v>57.81</v>
+      </c>
+      <c r="H4" s="16">
+        <v>26.6</v>
+      </c>
+      <c r="I4" s="15">
+        <v>62.92</v>
+      </c>
+      <c r="J4" s="15">
+        <v>65.28</v>
+      </c>
+      <c r="K4" s="15">
         <v>20.84</v>
       </c>
-      <c r="F4" s="18">
+      <c r="L4" s="15">
         <v>0.9553467095079901</v>
       </c>
-      <c r="G4" s="18">
+      <c r="M4" s="15">
         <v>61.94</v>
       </c>
-      <c r="H4" s="18">
+      <c r="N4" s="15">
         <v>44.86</v>
       </c>
-      <c r="I4" s="18">
+      <c r="O4" s="15">
         <v>0.468836726600433</v>
       </c>
-      <c r="J4" s="18">
+      <c r="P4" s="15">
         <v>57.81</v>
       </c>
-      <c r="K4" s="18">
+      <c r="Q4" s="15">
         <v>6.74</v>
       </c>
-      <c r="L4" s="18">
+      <c r="R4" s="15">
         <v>-1.40374863241068</v>
       </c>
-      <c r="M4" s="19">
+      <c r="S4" s="16">
         <v>26.6</v>
       </c>
-      <c r="N4" s="18">
+      <c r="T4" s="15">
         <v>49.91</v>
       </c>
-      <c r="O4" s="18">
+      <c r="U4" s="15">
         <v>0.775431548974325</v>
       </c>
-      <c r="P4" s="18">
+      <c r="V4" s="15">
         <v>62.92</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="W4" s="16">
         <v>34190</v>
       </c>
-      <c r="R4" s="18">
+      <c r="X4" s="15">
         <v>1.22272770220111</v>
       </c>
-      <c r="S4" s="18">
+      <c r="Y4" s="15">
         <v>65.28</v>
-      </c>
-      <c r="T4" s="18">
-        <v>54.91</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" t="s" s="14">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="D5" s="13">
         <v>2022</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
+        <v>52.79</v>
+      </c>
+      <c r="F5" s="15">
+        <v>56.65</v>
+      </c>
+      <c r="G5" s="15">
+        <v>54.61</v>
+      </c>
+      <c r="H5" s="15">
+        <v>43.32</v>
+      </c>
+      <c r="I5" s="15">
+        <v>55.54</v>
+      </c>
+      <c r="J5" s="15">
+        <v>53.83</v>
+      </c>
+      <c r="K5" s="15">
         <v>22.9</v>
       </c>
-      <c r="F5" s="18">
+      <c r="L5" s="15">
         <v>0.531842897968413</v>
       </c>
-      <c r="G5" s="18">
+      <c r="M5" s="15">
         <v>56.65</v>
       </c>
-      <c r="H5" s="18">
+      <c r="N5" s="15">
         <v>43.71</v>
       </c>
-      <c r="I5" s="18">
+      <c r="O5" s="15">
         <v>0.276718947346054</v>
       </c>
-      <c r="J5" s="18">
+      <c r="P5" s="15">
         <v>54.61</v>
       </c>
-      <c r="K5" s="18">
+      <c r="Q5" s="15">
         <v>5.64</v>
       </c>
-      <c r="L5" s="18">
+      <c r="R5" s="15">
         <v>-0.401071037831624</v>
       </c>
-      <c r="M5" s="18">
+      <c r="S5" s="15">
         <v>43.32</v>
       </c>
-      <c r="N5" s="18">
+      <c r="T5" s="15">
         <v>52.47</v>
       </c>
-      <c r="O5" s="18">
+      <c r="U5" s="15">
         <v>0.332141110932543</v>
       </c>
-      <c r="P5" s="18">
+      <c r="V5" s="15">
         <v>55.54</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="W5" s="16">
         <v>30400</v>
       </c>
-      <c r="R5" s="18">
+      <c r="X5" s="15">
         <v>0.30675011766049</v>
       </c>
-      <c r="S5" s="18">
+      <c r="Y5" s="15">
         <v>53.83</v>
-      </c>
-      <c r="T5" s="18">
-        <v>52.79</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="D6" s="13">
         <v>2022</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
+        <v>40.08</v>
+      </c>
+      <c r="F6" s="15">
+        <v>41.02</v>
+      </c>
+      <c r="G6" s="15">
+        <v>26.13</v>
+      </c>
+      <c r="H6" s="15">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="I6" s="15">
+        <v>22.61</v>
+      </c>
+      <c r="J6" s="15">
+        <v>42.74</v>
+      </c>
+      <c r="K6" s="15">
         <v>28.98</v>
       </c>
-      <c r="F6" s="18">
+      <c r="L6" s="15">
         <v>-0.71811009919694</v>
       </c>
-      <c r="G6" s="18">
+      <c r="M6" s="15">
         <v>41.02</v>
       </c>
-      <c r="H6" s="18">
+      <c r="N6" s="15">
         <v>33.48</v>
       </c>
-      <c r="I6" s="18">
+      <c r="O6" s="15">
         <v>-1.43229399332551</v>
       </c>
-      <c r="J6" s="18">
+      <c r="P6" s="15">
         <v>26.13</v>
       </c>
-      <c r="K6" s="18">
+      <c r="Q6" s="15">
         <v>4.02</v>
       </c>
-      <c r="L6" s="18">
+      <c r="R6" s="15">
         <v>1.07559960145754</v>
       </c>
-      <c r="M6" s="18">
+      <c r="S6" s="15">
         <v>67.93000000000001</v>
       </c>
-      <c r="N6" s="18">
+      <c r="T6" s="15">
         <v>63.88</v>
       </c>
-      <c r="O6" s="18">
+      <c r="U6" s="15">
         <v>-1.64361822424586</v>
       </c>
-      <c r="P6" s="18">
+      <c r="V6" s="15">
         <v>22.61</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="W6" s="16">
         <v>26726</v>
       </c>
-      <c r="R6" s="18">
+      <c r="X6" s="15">
         <v>-0.581192269041942</v>
       </c>
-      <c r="S6" s="18">
+      <c r="Y6" s="15">
         <v>42.74</v>
-      </c>
-      <c r="T6" s="18">
-        <v>40.08</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" t="s" s="14">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="14">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13">
         <v>2022</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
+        <v>48.25</v>
+      </c>
+      <c r="F7" s="15">
+        <v>57.14</v>
+      </c>
+      <c r="G7" s="15">
+        <v>44.25</v>
+      </c>
+      <c r="H7" s="15">
+        <v>34.66</v>
+      </c>
+      <c r="I7" s="15">
+        <v>47.02</v>
+      </c>
+      <c r="J7" s="15">
+        <v>58.18</v>
+      </c>
+      <c r="K7" s="15">
         <v>22.71</v>
       </c>
-      <c r="F7" s="18">
+      <c r="L7" s="15">
         <v>0.57090392912983</v>
       </c>
-      <c r="G7" s="18">
+      <c r="M7" s="15">
         <v>57.14</v>
       </c>
-      <c r="H7" s="18">
+      <c r="N7" s="15">
         <v>39.99</v>
       </c>
-      <c r="I7" s="18">
+      <c r="O7" s="15">
         <v>-0.344740303807244</v>
       </c>
-      <c r="J7" s="18">
+      <c r="P7" s="15">
         <v>44.25</v>
       </c>
-      <c r="K7" s="18">
+      <c r="Q7" s="15">
         <v>6.21</v>
       </c>
-      <c r="L7" s="18">
+      <c r="R7" s="15">
         <v>-0.920640336840774</v>
       </c>
-      <c r="M7" s="18">
+      <c r="S7" s="15">
         <v>34.66</v>
       </c>
-      <c r="N7" s="18">
+      <c r="T7" s="15">
         <v>55.42</v>
       </c>
-      <c r="O7" s="18">
+      <c r="U7" s="15">
         <v>-0.178681854779665</v>
       </c>
-      <c r="P7" s="18">
+      <c r="V7" s="15">
         <v>47.02</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="W7" s="16">
         <v>31838</v>
       </c>
-      <c r="R7" s="18">
+      <c r="X7" s="15">
         <v>0.654289897757958</v>
       </c>
-      <c r="S7" s="18">
+      <c r="Y7" s="15">
         <v>58.18</v>
-      </c>
-      <c r="T7" s="18">
-        <v>48.25</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="15">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>38</v>
+      </c>
+      <c r="D8" s="13">
         <v>2022</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
+        <v>61.18</v>
+      </c>
+      <c r="F8" s="15">
+        <v>62.51</v>
+      </c>
+      <c r="G8" s="15">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="H8" s="15">
+        <v>39.82</v>
+      </c>
+      <c r="I8" s="15">
+        <v>73.02</v>
+      </c>
+      <c r="J8" s="15">
+        <v>59.88</v>
+      </c>
+      <c r="K8" s="15">
         <v>20.62</v>
       </c>
-      <c r="F8" s="18">
+      <c r="L8" s="15">
         <v>1.00057527190542</v>
       </c>
-      <c r="G8" s="18">
+      <c r="M8" s="15">
         <v>62.51</v>
       </c>
-      <c r="H8" s="18">
+      <c r="N8" s="15">
         <v>49.48</v>
       </c>
-      <c r="I8" s="18">
+      <c r="O8" s="15">
         <v>1.24064902238759</v>
       </c>
-      <c r="J8" s="18">
+      <c r="P8" s="15">
         <v>70.68000000000001</v>
       </c>
-      <c r="K8" s="18">
+      <c r="Q8" s="15">
         <v>5.87</v>
       </c>
-      <c r="L8" s="18">
+      <c r="R8" s="15">
         <v>-0.610721807607246</v>
       </c>
-      <c r="M8" s="18">
+      <c r="S8" s="15">
         <v>39.82</v>
       </c>
-      <c r="N8" s="18">
+      <c r="T8" s="15">
         <v>46.41</v>
       </c>
-      <c r="O8" s="18">
+      <c r="U8" s="15">
         <v>1.38149269473457</v>
       </c>
-      <c r="P8" s="18">
+      <c r="V8" s="15">
         <v>73.02</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="W8" s="16">
         <v>32400</v>
       </c>
-      <c r="R8" s="18">
+      <c r="X8" s="15">
         <v>0.790115597629152</v>
       </c>
-      <c r="S8" s="18">
+      <c r="Y8" s="15">
         <v>59.88</v>
-      </c>
-      <c r="T8" s="18">
-        <v>61.18</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="15">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="B9" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13">
         <v>2022</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
+        <v>45.6</v>
+      </c>
+      <c r="F9" s="15">
+        <v>53.98</v>
+      </c>
+      <c r="G9" s="15">
+        <v>49.24</v>
+      </c>
+      <c r="H9" s="15">
+        <v>19.16</v>
+      </c>
+      <c r="I9" s="15">
+        <v>54.06</v>
+      </c>
+      <c r="J9" s="15">
+        <v>51.55</v>
+      </c>
+      <c r="K9" s="15">
         <v>23.94</v>
       </c>
-      <c r="F9" s="18">
+      <c r="L9" s="15">
         <v>0.318035148453287</v>
       </c>
-      <c r="G9" s="18">
+      <c r="M9" s="15">
         <v>53.98</v>
       </c>
-      <c r="H9" s="18">
+      <c r="N9" s="15">
         <v>41.78</v>
       </c>
-      <c r="I9" s="18">
+      <c r="O9" s="15">
         <v>-0.0457048039243398</v>
       </c>
-      <c r="J9" s="18">
+      <c r="P9" s="15">
         <v>49.24</v>
       </c>
-      <c r="K9" s="18">
+      <c r="Q9" s="15">
         <v>7.23</v>
       </c>
-      <c r="L9" s="18">
+      <c r="R9" s="15">
         <v>-1.85039592454136</v>
       </c>
-      <c r="M9" s="18">
+      <c r="S9" s="15">
         <v>19.16</v>
       </c>
-      <c r="N9" s="18">
+      <c r="T9" s="15">
         <v>52.98</v>
       </c>
-      <c r="O9" s="18">
+      <c r="U9" s="15">
         <v>0.243829343978908</v>
       </c>
-      <c r="P9" s="18">
+      <c r="V9" s="15">
         <v>54.06</v>
       </c>
-      <c r="Q9" s="19">
+      <c r="W9" s="16">
         <v>29645</v>
       </c>
-      <c r="R9" s="18">
+      <c r="X9" s="15">
         <v>0.12427964897232</v>
       </c>
-      <c r="S9" s="18">
+      <c r="Y9" s="15">
         <v>51.55</v>
-      </c>
-      <c r="T9" s="18">
-        <v>45.6</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s" s="15">
-        <v>37</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="B10" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13">
         <v>2022</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
+        <v>51.65</v>
+      </c>
+      <c r="F10" s="15">
+        <v>58.78</v>
+      </c>
+      <c r="G10" s="15">
+        <v>49.49</v>
+      </c>
+      <c r="H10" s="15">
+        <v>48.03</v>
+      </c>
+      <c r="I10" s="16">
+        <v>50.8</v>
+      </c>
+      <c r="J10" s="15">
+        <v>51.15</v>
+      </c>
+      <c r="K10" s="15">
         <v>22.07</v>
       </c>
-      <c r="F10" s="18">
+      <c r="L10" s="15">
         <v>0.702477928831446</v>
       </c>
-      <c r="G10" s="18">
+      <c r="M10" s="15">
         <v>58.78</v>
       </c>
-      <c r="H10" s="18">
+      <c r="N10" s="15">
         <v>41.87</v>
       </c>
-      <c r="I10" s="18">
+      <c r="O10" s="15">
         <v>-0.0306694994609542</v>
       </c>
-      <c r="J10" s="18">
+      <c r="P10" s="15">
         <v>49.49</v>
       </c>
-      <c r="K10" s="18">
+      <c r="Q10" s="15">
         <v>5.33</v>
       </c>
-      <c r="L10" s="18">
+      <c r="R10" s="15">
         <v>-0.118498261177525</v>
       </c>
-      <c r="M10" s="18">
+      <c r="S10" s="15">
         <v>48.03</v>
       </c>
-      <c r="N10" s="18">
+      <c r="T10" s="15">
         <v>54.11</v>
       </c>
-      <c r="O10" s="18">
+      <c r="U10" s="15">
         <v>0.0481581740620275</v>
       </c>
-      <c r="P10" s="19">
+      <c r="V10" s="16">
         <v>50.8</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="W10" s="16">
         <v>29511</v>
       </c>
-      <c r="R10" s="18">
+      <c r="X10" s="15">
         <v>0.09189416181442001</v>
       </c>
-      <c r="S10" s="18">
+      <c r="Y10" s="15">
         <v>51.15</v>
-      </c>
-      <c r="T10" s="18">
-        <v>51.65</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>12</v>
       </c>
-      <c r="B11" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="15">
+      <c r="B11" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2022</v>
+      </c>
+      <c r="E11" s="15">
+        <v>48.23</v>
+      </c>
+      <c r="F11" s="15">
+        <v>56.47</v>
+      </c>
+      <c r="G11" s="16">
+        <v>41.5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>53.04</v>
+      </c>
+      <c r="I11" s="15">
+        <v>41.42</v>
+      </c>
+      <c r="J11" s="15">
+        <v>48.73</v>
+      </c>
+      <c r="K11" s="15">
+        <v>22.97</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0.5174519917510489</v>
+      </c>
+      <c r="M11" s="15">
+        <v>56.47</v>
+      </c>
+      <c r="N11" s="16">
         <v>39</v>
       </c>
-      <c r="D11" s="16">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="17">
-        <v>22.97</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.5174519917510489</v>
-      </c>
-      <c r="G11" s="18">
-        <v>56.47</v>
-      </c>
-      <c r="H11" s="19">
-        <v>39</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="O11" s="15">
         <v>-0.5101286529044921</v>
       </c>
-      <c r="J11" s="19">
+      <c r="P11" s="16">
         <v>41.5</v>
       </c>
-      <c r="K11" s="19">
+      <c r="Q11" s="16">
         <v>5</v>
       </c>
-      <c r="L11" s="18">
+      <c r="R11" s="15">
         <v>0.182305017196193</v>
       </c>
-      <c r="M11" s="18">
+      <c r="S11" s="15">
         <v>53.04</v>
       </c>
-      <c r="N11" s="18">
+      <c r="T11" s="15">
         <v>57.36</v>
       </c>
-      <c r="O11" s="18">
+      <c r="U11" s="15">
         <v>-0.514612889858202</v>
       </c>
-      <c r="P11" s="18">
+      <c r="V11" s="15">
         <v>41.42</v>
       </c>
-      <c r="Q11" s="19">
+      <c r="W11" s="16">
         <v>28711</v>
       </c>
-      <c r="R11" s="18">
+      <c r="X11" s="15">
         <v>-0.101452030173045</v>
       </c>
-      <c r="S11" s="18">
+      <c r="Y11" s="15">
         <v>48.73</v>
-      </c>
-      <c r="T11" s="18">
-        <v>48.23</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>13</v>
       </c>
-      <c r="B12" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B12" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13">
         <v>2022</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
+        <v>49.28</v>
+      </c>
+      <c r="F12" s="16">
+        <v>54.8</v>
+      </c>
+      <c r="G12" s="15">
+        <v>42.44</v>
+      </c>
+      <c r="H12" s="15">
+        <v>55.17</v>
+      </c>
+      <c r="I12" s="15">
+        <v>41.22</v>
+      </c>
+      <c r="J12" s="15">
+        <v>52.76</v>
+      </c>
+      <c r="K12" s="15">
         <v>23.62</v>
       </c>
-      <c r="F12" s="18">
+      <c r="L12" s="15">
         <v>0.383822148304095</v>
       </c>
-      <c r="G12" s="19">
+      <c r="M12" s="16">
         <v>54.8</v>
       </c>
-      <c r="H12" s="18">
+      <c r="N12" s="15">
         <v>39.34</v>
       </c>
-      <c r="I12" s="18">
+      <c r="O12" s="15">
         <v>-0.453328613820588</v>
       </c>
-      <c r="J12" s="18">
+      <c r="P12" s="15">
         <v>42.44</v>
       </c>
-      <c r="K12" s="18">
+      <c r="Q12" s="15">
         <v>4.86</v>
       </c>
-      <c r="L12" s="18">
+      <c r="R12" s="15">
         <v>0.309918529233528</v>
       </c>
-      <c r="M12" s="18">
+      <c r="S12" s="15">
         <v>55.17</v>
       </c>
-      <c r="N12" s="18">
+      <c r="T12" s="15">
         <v>57.43</v>
       </c>
-      <c r="O12" s="18">
+      <c r="U12" s="15">
         <v>-0.526734112773407</v>
       </c>
-      <c r="P12" s="18">
+      <c r="V12" s="15">
         <v>41.22</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="W12" s="16">
         <v>30043</v>
       </c>
-      <c r="R12" s="18">
+      <c r="X12" s="15">
         <v>0.220469379486084</v>
       </c>
-      <c r="S12" s="18">
+      <c r="Y12" s="15">
         <v>52.76</v>
-      </c>
-      <c r="T12" s="18">
-        <v>49.28</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>15</v>
       </c>
-      <c r="B13" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B13" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="D13" s="13">
         <v>2022</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
+        <v>62.39</v>
+      </c>
+      <c r="F13" s="16">
+        <v>63.2</v>
+      </c>
+      <c r="G13" s="16">
+        <v>54.7</v>
+      </c>
+      <c r="H13" s="15">
+        <v>63.82</v>
+      </c>
+      <c r="I13" s="15">
+        <v>54.09</v>
+      </c>
+      <c r="J13" s="15">
+        <v>76.13</v>
+      </c>
+      <c r="K13" s="15">
         <v>20.35</v>
       </c>
-      <c r="F13" s="18">
+      <c r="L13" s="15">
         <v>1.05608305302954</v>
       </c>
-      <c r="G13" s="19">
+      <c r="M13" s="16">
         <v>63.2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="N13" s="15">
         <v>43.74</v>
       </c>
-      <c r="I13" s="18">
+      <c r="O13" s="15">
         <v>0.281730715500516</v>
       </c>
-      <c r="J13" s="19">
+      <c r="P13" s="16">
         <v>54.7</v>
       </c>
-      <c r="K13" s="18">
+      <c r="Q13" s="15">
         <v>4.29</v>
       </c>
-      <c r="L13" s="18">
+      <c r="R13" s="15">
         <v>0.829487828242677</v>
       </c>
-      <c r="M13" s="18">
+      <c r="S13" s="15">
         <v>63.82</v>
       </c>
-      <c r="N13" s="18">
+      <c r="T13" s="15">
         <v>52.97</v>
       </c>
-      <c r="O13" s="18">
+      <c r="U13" s="15">
         <v>0.245560947252508</v>
       </c>
-      <c r="P13" s="18">
+      <c r="V13" s="15">
         <v>54.09</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="W13" s="16">
         <v>37779</v>
       </c>
-      <c r="R13" s="18">
+      <c r="X13" s="15">
         <v>2.09012705600487</v>
       </c>
-      <c r="S13" s="18">
+      <c r="Y13" s="15">
         <v>76.13</v>
-      </c>
-      <c r="T13" s="18">
-        <v>62.39</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>16</v>
       </c>
-      <c r="B14" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" t="s" s="14">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>50</v>
+      </c>
+      <c r="D14" s="13">
         <v>2022</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
+        <v>56.68</v>
+      </c>
+      <c r="F14" s="15">
+        <v>59.19</v>
+      </c>
+      <c r="G14" s="15">
+        <v>64.41</v>
+      </c>
+      <c r="H14" s="15">
+        <v>63.22</v>
+      </c>
+      <c r="I14" s="16">
+        <v>60.7</v>
+      </c>
+      <c r="J14" s="15">
+        <v>35.85</v>
+      </c>
+      <c r="K14" s="15">
         <v>21.91</v>
       </c>
-      <c r="F14" s="18">
+      <c r="L14" s="15">
         <v>0.735371428756851</v>
       </c>
-      <c r="G14" s="18">
+      <c r="M14" s="15">
         <v>59.19</v>
       </c>
-      <c r="H14" s="18">
+      <c r="N14" s="15">
         <v>47.23</v>
       </c>
-      <c r="I14" s="18">
+      <c r="O14" s="15">
         <v>0.864766410802937</v>
       </c>
-      <c r="J14" s="18">
+      <c r="P14" s="15">
         <v>64.41</v>
       </c>
-      <c r="K14" s="18">
+      <c r="Q14" s="15">
         <v>4.33</v>
       </c>
-      <c r="L14" s="18">
+      <c r="R14" s="15">
         <v>0.793026824803439</v>
       </c>
-      <c r="M14" s="18">
+      <c r="S14" s="15">
         <v>63.22</v>
       </c>
-      <c r="N14" s="18">
+      <c r="T14" s="15">
         <v>50.68</v>
       </c>
-      <c r="O14" s="18">
+      <c r="U14" s="15">
         <v>0.64209809690707</v>
       </c>
-      <c r="P14" s="19">
+      <c r="V14" s="16">
         <v>60.7</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="W14" s="16">
         <v>24448</v>
       </c>
-      <c r="R14" s="18">
+      <c r="X14" s="15">
         <v>-1.13174555072625</v>
       </c>
-      <c r="S14" s="18">
+      <c r="Y14" s="15">
         <v>35.85</v>
-      </c>
-      <c r="T14" s="18">
-        <v>56.68</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>17</v>
       </c>
-      <c r="B15" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="B15" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s" s="14">
+        <v>52</v>
+      </c>
+      <c r="D15" s="13">
         <v>2022</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
+        <v>47.27</v>
+      </c>
+      <c r="F15" s="15">
+        <v>51.59</v>
+      </c>
+      <c r="G15" s="15">
+        <v>49.07</v>
+      </c>
+      <c r="H15" s="15">
+        <v>31.47</v>
+      </c>
+      <c r="I15" s="15">
+        <v>52.45</v>
+      </c>
+      <c r="J15" s="15">
+        <v>51.79</v>
+      </c>
+      <c r="K15" s="15">
         <v>24.87</v>
       </c>
-      <c r="F15" s="18">
+      <c r="L15" s="15">
         <v>0.126841680136876</v>
       </c>
-      <c r="G15" s="18">
+      <c r="M15" s="15">
         <v>51.59</v>
       </c>
-      <c r="H15" s="18">
+      <c r="N15" s="15">
         <v>41.72</v>
       </c>
-      <c r="I15" s="18">
+      <c r="O15" s="15">
         <v>-0.0557283402332644</v>
       </c>
-      <c r="J15" s="18">
+      <c r="P15" s="15">
         <v>49.07</v>
       </c>
-      <c r="K15" s="18">
+      <c r="Q15" s="15">
         <v>6.42</v>
       </c>
-      <c r="L15" s="18">
+      <c r="R15" s="15">
         <v>-1.11206060489678</v>
       </c>
-      <c r="M15" s="18">
+      <c r="S15" s="15">
         <v>31.47</v>
       </c>
-      <c r="N15" s="18">
+      <c r="T15" s="15">
         <v>53.54</v>
       </c>
-      <c r="O15" s="18">
+      <c r="U15" s="15">
         <v>0.146859560657268</v>
       </c>
-      <c r="P15" s="18">
+      <c r="V15" s="15">
         <v>52.45</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="W15" s="16">
         <v>29723</v>
       </c>
-      <c r="R15" s="18">
+      <c r="X15" s="15">
         <v>0.143130902691098</v>
       </c>
-      <c r="S15" s="18">
+      <c r="Y15" s="15">
         <v>51.79</v>
-      </c>
-      <c r="T15" s="18">
-        <v>47.27</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>18</v>
       </c>
-      <c r="B16" t="s" s="15">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s" s="15">
-        <v>49</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B16" t="s" s="14">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s" s="14">
+        <v>54</v>
+      </c>
+      <c r="D16" s="13">
         <v>2022</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
+        <v>51.16</v>
+      </c>
+      <c r="F16" s="15">
+        <v>50.38</v>
+      </c>
+      <c r="G16" s="15">
+        <v>50.02</v>
+      </c>
+      <c r="H16" s="15">
+        <v>61.39</v>
+      </c>
+      <c r="I16" s="15">
+        <v>47.89</v>
+      </c>
+      <c r="J16" s="15">
+        <v>46.12</v>
+      </c>
+      <c r="K16" s="15">
         <v>25.34</v>
       </c>
-      <c r="F16" s="18">
+      <c r="L16" s="15">
         <v>0.0302170241060019</v>
       </c>
-      <c r="G16" s="18">
+      <c r="M16" s="15">
         <v>50.38</v>
       </c>
-      <c r="H16" s="18">
+      <c r="N16" s="15">
         <v>42.06</v>
       </c>
-      <c r="I16" s="18">
+      <c r="O16" s="15">
         <v>0.0010716988506397</v>
       </c>
-      <c r="J16" s="18">
+      <c r="P16" s="15">
         <v>50.02</v>
       </c>
-      <c r="K16" s="18">
+      <c r="Q16" s="15">
         <v>4.45</v>
       </c>
-      <c r="L16" s="18">
+      <c r="R16" s="15">
         <v>0.683643814485723</v>
       </c>
-      <c r="M16" s="18">
+      <c r="S16" s="15">
         <v>61.39</v>
       </c>
-      <c r="N16" s="18">
+      <c r="T16" s="15">
         <v>55.12</v>
       </c>
-      <c r="O16" s="18">
+      <c r="U16" s="15">
         <v>-0.126733756571643</v>
       </c>
-      <c r="P16" s="18">
+      <c r="V16" s="15">
         <v>47.89</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="W16" s="16">
         <v>27847</v>
       </c>
-      <c r="R16" s="18">
+      <c r="X16" s="15">
         <v>-0.310265917519507</v>
       </c>
-      <c r="S16" s="18">
+      <c r="Y16" s="15">
         <v>46.12</v>
-      </c>
-      <c r="T16" s="18">
-        <v>51.16</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>19</v>
       </c>
-      <c r="B17" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="B17" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="D17" s="13">
         <v>2022</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
+        <v>56.07</v>
+      </c>
+      <c r="F17" s="15">
+        <v>49.68</v>
+      </c>
+      <c r="G17" s="15">
+        <v>67.42</v>
+      </c>
+      <c r="H17" s="15">
+        <v>56.99</v>
+      </c>
+      <c r="I17" s="16">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J17" s="15">
+        <v>40.17</v>
+      </c>
+      <c r="K17" s="15">
         <v>25.61</v>
       </c>
-      <c r="F17" s="18">
+      <c r="L17" s="15">
         <v>-0.0252907570181173</v>
       </c>
-      <c r="G17" s="18">
+      <c r="M17" s="15">
         <v>49.68</v>
       </c>
-      <c r="H17" s="18">
+      <c r="N17" s="15">
         <v>48.31</v>
       </c>
-      <c r="I17" s="18">
+      <c r="O17" s="15">
         <v>1.04519006436357</v>
       </c>
-      <c r="J17" s="18">
+      <c r="P17" s="15">
         <v>67.42</v>
       </c>
-      <c r="K17" s="18">
+      <c r="Q17" s="15">
         <v>4.74</v>
       </c>
-      <c r="L17" s="18">
+      <c r="R17" s="15">
         <v>0.419301539551243</v>
       </c>
-      <c r="M17" s="18">
+      <c r="S17" s="15">
         <v>56.99</v>
       </c>
-      <c r="N17" s="18">
+      <c r="T17" s="15">
         <v>48.81</v>
       </c>
-      <c r="O17" s="18">
+      <c r="U17" s="15">
         <v>0.965907909070401</v>
       </c>
-      <c r="P17" s="19">
+      <c r="V17" s="16">
         <v>66.09999999999999</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="W17" s="16">
         <v>25878</v>
       </c>
-      <c r="R17" s="18">
+      <c r="X17" s="15">
         <v>-0.786139232548655</v>
       </c>
-      <c r="S17" s="18">
+      <c r="Y17" s="15">
         <v>40.17</v>
-      </c>
-      <c r="T17" s="18">
-        <v>56.07</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>20</v>
       </c>
-      <c r="B18" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s" s="15">
-        <v>53</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="B18" t="s" s="14">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="D18" s="13">
         <v>2022</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
+        <v>58.11</v>
+      </c>
+      <c r="F18" s="15">
+        <v>51.61</v>
+      </c>
+      <c r="G18" s="15">
+        <v>68.09</v>
+      </c>
+      <c r="H18" s="15">
+        <v>60.03</v>
+      </c>
+      <c r="I18" s="15">
+        <v>65.81</v>
+      </c>
+      <c r="J18" s="15">
+        <v>45.03</v>
+      </c>
+      <c r="K18" s="15">
         <v>24.86</v>
       </c>
-      <c r="F18" s="18">
+      <c r="L18" s="15">
         <v>0.128897523882214</v>
       </c>
-      <c r="G18" s="18">
+      <c r="M18" s="15">
         <v>51.61</v>
       </c>
-      <c r="H18" s="18">
+      <c r="N18" s="15">
         <v>48.55</v>
       </c>
-      <c r="I18" s="18">
+      <c r="O18" s="15">
         <v>1.08528420959927</v>
       </c>
-      <c r="J18" s="18">
+      <c r="P18" s="15">
         <v>68.09</v>
       </c>
-      <c r="K18" s="18">
+      <c r="Q18" s="15">
         <v>4.54</v>
       </c>
-      <c r="L18" s="18">
+      <c r="R18" s="15">
         <v>0.601606556747437</v>
       </c>
-      <c r="M18" s="18">
+      <c r="S18" s="15">
         <v>60.03</v>
       </c>
-      <c r="N18" s="18">
+      <c r="T18" s="15">
         <v>48.91</v>
       </c>
-      <c r="O18" s="18">
+      <c r="U18" s="15">
         <v>0.948591876334395</v>
       </c>
-      <c r="P18" s="18">
+      <c r="V18" s="15">
         <v>65.81</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="W18" s="16">
         <v>27484</v>
       </c>
-      <c r="R18" s="18">
+      <c r="X18" s="15">
         <v>-0.397996752133819</v>
       </c>
-      <c r="S18" s="18">
+      <c r="Y18" s="15">
         <v>45.03</v>
-      </c>
-      <c r="T18" s="18">
-        <v>58.11</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>21</v>
       </c>
-      <c r="B19" t="s" s="15">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s" s="15">
-        <v>55</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="B19" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13">
         <v>2022</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
+        <v>39.3</v>
+      </c>
+      <c r="F19" s="15">
+        <v>36.27</v>
+      </c>
+      <c r="G19" s="15">
+        <v>27.99</v>
+      </c>
+      <c r="H19" s="15">
+        <v>66.86</v>
+      </c>
+      <c r="I19" s="15">
+        <v>24.54</v>
+      </c>
+      <c r="J19" s="15">
+        <v>40.84</v>
+      </c>
+      <c r="K19" s="15">
         <v>30.83</v>
       </c>
-      <c r="F19" s="18">
+      <c r="L19" s="15">
         <v>-1.09844119208442</v>
       </c>
-      <c r="G19" s="18">
+      <c r="M19" s="15">
         <v>36.27</v>
       </c>
-      <c r="H19" s="18">
+      <c r="N19" s="15">
         <v>34.15</v>
       </c>
-      <c r="I19" s="18">
+      <c r="O19" s="15">
         <v>-1.32036450454253</v>
       </c>
-      <c r="J19" s="18">
+      <c r="P19" s="15">
         <v>27.99</v>
       </c>
-      <c r="K19" s="18">
+      <c r="Q19" s="15">
         <v>4.09</v>
       </c>
-      <c r="L19" s="18">
+      <c r="R19" s="15">
         <v>1.01179284543887</v>
       </c>
-      <c r="M19" s="18">
+      <c r="S19" s="15">
         <v>66.86</v>
       </c>
-      <c r="N19" s="18">
+      <c r="T19" s="15">
         <v>63.21</v>
       </c>
-      <c r="O19" s="18">
+      <c r="U19" s="15">
         <v>-1.52760080491462</v>
       </c>
-      <c r="P19" s="18">
+      <c r="V19" s="15">
         <v>24.54</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="W19" s="16">
         <v>26099</v>
       </c>
-      <c r="R19" s="18">
+      <c r="X19" s="15">
         <v>-0.7327273470121179</v>
       </c>
-      <c r="S19" s="18">
+      <c r="Y19" s="15">
         <v>40.84</v>
-      </c>
-      <c r="T19" s="18">
-        <v>39.3</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>22</v>
       </c>
-      <c r="B20" t="s" s="15">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s" s="15">
-        <v>57</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="B20" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="D20" s="13">
         <v>2022</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
+        <v>39.25</v>
+      </c>
+      <c r="F20" s="15">
+        <v>39.71</v>
+      </c>
+      <c r="G20" s="15">
+        <v>32.23</v>
+      </c>
+      <c r="H20" s="15">
+        <v>46.96</v>
+      </c>
+      <c r="I20" s="15">
+        <v>32.77</v>
+      </c>
+      <c r="J20" s="15">
+        <v>44.59</v>
+      </c>
+      <c r="K20" s="15">
         <v>29.49</v>
       </c>
-      <c r="F20" s="18">
+      <c r="L20" s="15">
         <v>-0.822958130209165</v>
       </c>
-      <c r="G20" s="18">
+      <c r="M20" s="15">
         <v>39.71</v>
       </c>
-      <c r="H20" s="18">
+      <c r="N20" s="15">
         <v>35.67</v>
       </c>
-      <c r="I20" s="18">
+      <c r="O20" s="15">
         <v>-1.06643491804978</v>
       </c>
-      <c r="J20" s="18">
+      <c r="P20" s="15">
         <v>32.23</v>
       </c>
-      <c r="K20" s="19">
+      <c r="Q20" s="16">
         <v>5.4</v>
       </c>
-      <c r="L20" s="18">
+      <c r="R20" s="15">
         <v>-0.182305017196193</v>
       </c>
-      <c r="M20" s="18">
+      <c r="S20" s="15">
         <v>46.96</v>
       </c>
-      <c r="N20" s="18">
+      <c r="T20" s="15">
         <v>60.36</v>
       </c>
-      <c r="O20" s="18">
+      <c r="U20" s="15">
         <v>-1.03409387193841</v>
       </c>
-      <c r="P20" s="18">
+      <c r="V20" s="15">
         <v>32.77</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="W20" s="16">
         <v>27339</v>
       </c>
-      <c r="R20" s="18">
+      <c r="X20" s="15">
         <v>-0.433040749431547</v>
       </c>
-      <c r="S20" s="18">
+      <c r="Y20" s="15">
         <v>44.59</v>
-      </c>
-      <c r="T20" s="18">
-        <v>39.25</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>23</v>
       </c>
-      <c r="B21" t="s" s="15">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s" s="15">
-        <v>59</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="B21" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>64</v>
+      </c>
+      <c r="D21" s="13">
         <v>2022</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
+        <v>44.97</v>
+      </c>
+      <c r="F21" s="15">
+        <v>45.08</v>
+      </c>
+      <c r="G21" s="15">
+        <v>40.16</v>
+      </c>
+      <c r="H21" s="15">
+        <v>59.27</v>
+      </c>
+      <c r="I21" s="15">
+        <v>37.56</v>
+      </c>
+      <c r="J21" s="15">
+        <v>42.76</v>
+      </c>
+      <c r="K21" s="15">
         <v>27.4</v>
       </c>
-      <c r="F21" s="18">
+      <c r="L21" s="15">
         <v>-0.393286787433575</v>
       </c>
-      <c r="G21" s="18">
+      <c r="M21" s="15">
         <v>45.08</v>
       </c>
-      <c r="H21" s="18">
+      <c r="N21" s="15">
         <v>38.52</v>
       </c>
-      <c r="I21" s="18">
+      <c r="O21" s="15">
         <v>-0.590316943375885</v>
       </c>
-      <c r="J21" s="18">
+      <c r="P21" s="15">
         <v>40.16</v>
       </c>
-      <c r="K21" s="18">
+      <c r="Q21" s="15">
         <v>4.59</v>
       </c>
-      <c r="L21" s="18">
+      <c r="R21" s="15">
         <v>0.556030302448388</v>
       </c>
-      <c r="M21" s="18">
+      <c r="S21" s="15">
         <v>59.27</v>
       </c>
-      <c r="N21" s="19">
+      <c r="T21" s="16">
         <v>58.7</v>
       </c>
-      <c r="O21" s="18">
+      <c r="U21" s="15">
         <v>-0.7466477285206971</v>
       </c>
-      <c r="P21" s="18">
+      <c r="V21" s="15">
         <v>37.56</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="W21" s="16">
         <v>26734</v>
       </c>
-      <c r="R21" s="18">
+      <c r="X21" s="15">
         <v>-0.579258807122067</v>
       </c>
-      <c r="S21" s="18">
+      <c r="Y21" s="15">
         <v>42.76</v>
-      </c>
-      <c r="T21" s="18">
-        <v>44.97</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>24</v>
       </c>
-      <c r="B22" t="s" s="15">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s" s="15">
-        <v>61</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="B22" t="s" s="14">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="D22" s="13">
         <v>2022</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
+        <v>58.32</v>
+      </c>
+      <c r="F22" s="15">
+        <v>60.84</v>
+      </c>
+      <c r="G22" s="15">
+        <v>58.76</v>
+      </c>
+      <c r="H22" s="15">
+        <v>35.11</v>
+      </c>
+      <c r="I22" s="15">
+        <v>61.94</v>
+      </c>
+      <c r="J22" s="15">
+        <v>74.97</v>
+      </c>
+      <c r="K22" s="15">
         <v>21.27</v>
       </c>
-      <c r="F22" s="18">
+      <c r="L22" s="15">
         <v>0.866945428458467</v>
       </c>
-      <c r="G22" s="18">
+      <c r="M22" s="15">
         <v>60.84</v>
       </c>
-      <c r="H22" s="19">
+      <c r="N22" s="16">
         <v>45.2</v>
       </c>
-      <c r="I22" s="18">
+      <c r="O22" s="15">
         <v>0.525636765684337</v>
       </c>
-      <c r="J22" s="18">
+      <c r="P22" s="15">
         <v>58.76</v>
       </c>
-      <c r="K22" s="18">
+      <c r="Q22" s="15">
         <v>6.18</v>
       </c>
-      <c r="L22" s="18">
+      <c r="R22" s="15">
         <v>-0.893294584261344</v>
       </c>
-      <c r="M22" s="18">
+      <c r="S22" s="15">
         <v>35.11</v>
       </c>
-      <c r="N22" s="18">
+      <c r="T22" s="15">
         <v>50.25</v>
       </c>
-      <c r="O22" s="18">
+      <c r="U22" s="15">
         <v>0.7165570376719</v>
       </c>
-      <c r="P22" s="18">
+      <c r="V22" s="15">
         <v>61.94</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="W22" s="16">
         <v>37396</v>
       </c>
-      <c r="R22" s="18">
+      <c r="X22" s="15">
         <v>1.99756256659087</v>
       </c>
-      <c r="S22" s="18">
+      <c r="Y22" s="15">
         <v>74.97</v>
-      </c>
-      <c r="T22" s="18">
-        <v>58.32</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="14">
+      <c r="A23" s="13">
         <v>25</v>
       </c>
-      <c r="B23" t="s" s="15">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="B23" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="D23" s="13">
         <v>2022</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
+        <v>48.04</v>
+      </c>
+      <c r="F23" s="16">
+        <v>50.3</v>
+      </c>
+      <c r="G23" s="15">
+        <v>48.46</v>
+      </c>
+      <c r="H23" s="16">
+        <v>34.2</v>
+      </c>
+      <c r="I23" s="15">
+        <v>49.82</v>
+      </c>
+      <c r="J23" s="15">
+        <v>57.41</v>
+      </c>
+      <c r="K23" s="15">
         <v>25.37</v>
       </c>
-      <c r="F23" s="18">
+      <c r="L23" s="15">
         <v>0.0240494928699884</v>
       </c>
-      <c r="G23" s="19">
+      <c r="M23" s="16">
         <v>50.3</v>
       </c>
-      <c r="H23" s="19">
+      <c r="N23" s="16">
         <v>41.5</v>
       </c>
-      <c r="I23" s="18">
+      <c r="O23" s="15">
         <v>-0.09248130669931939</v>
       </c>
-      <c r="J23" s="18">
+      <c r="P23" s="15">
         <v>48.46</v>
       </c>
-      <c r="K23" s="18">
+      <c r="Q23" s="15">
         <v>6.24</v>
       </c>
-      <c r="L23" s="18">
+      <c r="R23" s="15">
         <v>-0.947986089420203</v>
       </c>
-      <c r="M23" s="19">
+      <c r="S23" s="16">
         <v>34.2</v>
       </c>
-      <c r="N23" s="18">
+      <c r="T23" s="15">
         <v>54.45</v>
       </c>
-      <c r="O23" s="18">
+      <c r="U23" s="15">
         <v>-0.0107163372403971</v>
       </c>
-      <c r="P23" s="18">
+      <c r="V23" s="15">
         <v>49.82</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="W23" s="16">
         <v>31582</v>
       </c>
-      <c r="R23" s="18">
+      <c r="X23" s="15">
         <v>0.59241911632197</v>
       </c>
-      <c r="S23" s="18">
+      <c r="Y23" s="15">
         <v>57.41</v>
-      </c>
-      <c r="T23" s="18">
-        <v>48.04</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>26</v>
       </c>
-      <c r="B24" t="s" s="15">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s" s="15">
-        <v>65</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="B24" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s" s="14">
+        <v>70</v>
+      </c>
+      <c r="D24" s="13">
         <v>2022</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
+        <v>41.06</v>
+      </c>
+      <c r="F24" s="15">
+        <v>46.39</v>
+      </c>
+      <c r="G24" s="15">
+        <v>37.82</v>
+      </c>
+      <c r="H24" s="15">
+        <v>43.32</v>
+      </c>
+      <c r="I24" s="15">
+        <v>39.06</v>
+      </c>
+      <c r="J24" s="15">
+        <v>38.72</v>
+      </c>
+      <c r="K24" s="15">
         <v>26.89</v>
       </c>
-      <c r="F24" s="18">
+      <c r="L24" s="15">
         <v>-0.28843875642135</v>
       </c>
-      <c r="G24" s="18">
+      <c r="M24" s="15">
         <v>46.39</v>
       </c>
-      <c r="H24" s="18">
+      <c r="N24" s="15">
         <v>37.68</v>
       </c>
-      <c r="I24" s="18">
+      <c r="O24" s="15">
         <v>-0.730646451700824</v>
       </c>
-      <c r="J24" s="18">
+      <c r="P24" s="15">
         <v>37.82</v>
       </c>
-      <c r="K24" s="18">
+      <c r="Q24" s="15">
         <v>5.64</v>
       </c>
-      <c r="L24" s="18">
+      <c r="R24" s="15">
         <v>-0.401071037831624</v>
       </c>
-      <c r="M24" s="18">
+      <c r="S24" s="15">
         <v>43.32</v>
       </c>
-      <c r="N24" s="18">
+      <c r="T24" s="15">
         <v>58.18</v>
       </c>
-      <c r="O24" s="18">
+      <c r="U24" s="15">
         <v>-0.65660435829346</v>
       </c>
-      <c r="P24" s="18">
+      <c r="V24" s="15">
         <v>39.06</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="W24" s="16">
         <v>25398</v>
       </c>
-      <c r="R24" s="18">
+      <c r="X24" s="15">
         <v>-0.902146947741134</v>
       </c>
-      <c r="S24" s="18">
+      <c r="Y24" s="15">
         <v>38.72</v>
-      </c>
-      <c r="T24" s="18">
-        <v>41.06</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="14">
+      <c r="A25" s="13">
         <v>27</v>
       </c>
-      <c r="B25" t="s" s="15">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s" s="15">
-        <v>67</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="B25" t="s" s="14">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D25" s="13">
         <v>2022</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
+        <v>55.84</v>
+      </c>
+      <c r="F25" s="15">
+        <v>51.77</v>
+      </c>
+      <c r="G25" s="15">
+        <v>70.93000000000001</v>
+      </c>
+      <c r="H25" s="15">
+        <v>39.82</v>
+      </c>
+      <c r="I25" s="15">
+        <v>72.77</v>
+      </c>
+      <c r="J25" s="15">
+        <v>43.94</v>
+      </c>
+      <c r="K25" s="15">
         <v>24.8</v>
       </c>
-      <c r="F25" s="18">
+      <c r="L25" s="15">
         <v>0.14123258635424</v>
       </c>
-      <c r="G25" s="18">
+      <c r="M25" s="15">
         <v>51.77</v>
       </c>
-      <c r="H25" s="18">
+      <c r="N25" s="15">
         <v>49.57</v>
       </c>
-      <c r="I25" s="18">
+      <c r="O25" s="15">
         <v>1.25568432685098</v>
       </c>
-      <c r="J25" s="18">
+      <c r="P25" s="15">
         <v>70.93000000000001</v>
       </c>
-      <c r="K25" s="18">
+      <c r="Q25" s="15">
         <v>5.87</v>
       </c>
-      <c r="L25" s="18">
+      <c r="R25" s="15">
         <v>-0.610721807607246</v>
       </c>
-      <c r="M25" s="18">
+      <c r="S25" s="15">
         <v>39.82</v>
       </c>
-      <c r="N25" s="19">
+      <c r="T25" s="16">
         <v>46.5</v>
       </c>
-      <c r="O25" s="18">
+      <c r="U25" s="15">
         <v>1.36590826527217</v>
       </c>
-      <c r="P25" s="18">
+      <c r="V25" s="15">
         <v>72.77</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="W25" s="16">
         <v>27124</v>
       </c>
-      <c r="R25" s="18">
+      <c r="X25" s="15">
         <v>-0.485002538528178</v>
       </c>
-      <c r="S25" s="18">
+      <c r="Y25" s="15">
         <v>43.94</v>
-      </c>
-      <c r="T25" s="18">
-        <v>55.84</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="14">
+      <c r="A26" s="13">
         <v>28</v>
       </c>
-      <c r="B26" t="s" s="15">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s" s="15">
-        <v>69</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="B26" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="D26" s="13">
         <v>2022</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
+        <v>37.78</v>
+      </c>
+      <c r="F26" s="15">
+        <v>38.07</v>
+      </c>
+      <c r="G26" s="15">
+        <v>26.07</v>
+      </c>
+      <c r="H26" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="I26" s="15">
+        <v>23.59</v>
+      </c>
+      <c r="J26" s="15">
+        <v>39.48</v>
+      </c>
+      <c r="K26" s="15">
         <v>30.13</v>
       </c>
-      <c r="F26" s="18">
+      <c r="L26" s="15">
         <v>-0.954532129910781</v>
       </c>
-      <c r="G26" s="18">
+      <c r="M26" s="15">
         <v>38.07</v>
       </c>
-      <c r="H26" s="18">
+      <c r="N26" s="15">
         <v>33.46</v>
       </c>
-      <c r="I26" s="18">
+      <c r="O26" s="15">
         <v>-1.43563517209516</v>
       </c>
-      <c r="J26" s="18">
+      <c r="P26" s="15">
         <v>26.07</v>
       </c>
-      <c r="K26" s="18">
+      <c r="Q26" s="15">
         <v>4.43</v>
       </c>
-      <c r="L26" s="18">
+      <c r="R26" s="15">
         <v>0.701874316205343</v>
       </c>
-      <c r="M26" s="19">
+      <c r="S26" s="16">
         <v>61.7</v>
       </c>
-      <c r="N26" s="18">
+      <c r="T26" s="15">
         <v>63.54</v>
       </c>
-      <c r="O26" s="18">
+      <c r="U26" s="15">
         <v>-1.58474371294344</v>
       </c>
-      <c r="P26" s="18">
+      <c r="V26" s="15">
         <v>23.59</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="W26" s="16">
         <v>25649</v>
       </c>
-      <c r="R26" s="18">
+      <c r="X26" s="15">
         <v>-0.841484580005067</v>
       </c>
-      <c r="S26" s="18">
+      <c r="Y26" s="15">
         <v>39.48</v>
-      </c>
-      <c r="T26" s="18">
-        <v>37.78</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="14">
+      <c r="A27" s="13">
         <v>29</v>
       </c>
-      <c r="B27" t="s" s="15">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s" s="15">
-        <v>71</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="B27" t="s" s="14">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s" s="14">
+        <v>76</v>
+      </c>
+      <c r="D27" s="13">
         <v>2022</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
+        <v>47.19</v>
+      </c>
+      <c r="F27" s="15">
+        <v>44.52</v>
+      </c>
+      <c r="G27" s="15">
+        <v>43.45</v>
+      </c>
+      <c r="H27" s="15">
+        <v>60.48</v>
+      </c>
+      <c r="I27" s="15">
+        <v>42.14</v>
+      </c>
+      <c r="J27" s="15">
+        <v>45.34</v>
+      </c>
+      <c r="K27" s="15">
         <v>27.62</v>
       </c>
-      <c r="F27" s="18">
+      <c r="L27" s="15">
         <v>-0.438515349831006</v>
       </c>
-      <c r="G27" s="18">
+      <c r="M27" s="15">
         <v>44.52</v>
       </c>
-      <c r="H27" s="19">
+      <c r="N27" s="16">
         <v>39.7</v>
       </c>
-      <c r="I27" s="18">
+      <c r="O27" s="15">
         <v>-0.393187395967044</v>
       </c>
-      <c r="J27" s="18">
+      <c r="P27" s="15">
         <v>43.45</v>
       </c>
-      <c r="K27" s="18">
+      <c r="Q27" s="15">
         <v>4.51</v>
       </c>
-      <c r="L27" s="18">
+      <c r="R27" s="15">
         <v>0.628952309326866</v>
       </c>
-      <c r="M27" s="18">
+      <c r="S27" s="15">
         <v>60.48</v>
       </c>
-      <c r="N27" s="18">
+      <c r="T27" s="15">
         <v>57.11</v>
       </c>
-      <c r="O27" s="18">
+      <c r="U27" s="15">
         <v>-0.471322808018184</v>
       </c>
-      <c r="P27" s="18">
+      <c r="V27" s="15">
         <v>42.14</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="W27" s="16">
         <v>27588</v>
       </c>
-      <c r="R27" s="18">
+      <c r="X27" s="15">
         <v>-0.372861747175449</v>
       </c>
-      <c r="S27" s="18">
+      <c r="Y27" s="15">
         <v>45.34</v>
-      </c>
-      <c r="T27" s="18">
-        <v>47.19</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>30</v>
       </c>
-      <c r="B28" t="s" s="15">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s" s="15">
-        <v>73</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="B28" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="D28" s="13">
         <v>2022</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
+        <v>55.98</v>
+      </c>
+      <c r="F28" s="15">
+        <v>53.69</v>
+      </c>
+      <c r="G28" s="16">
+        <v>65.3</v>
+      </c>
+      <c r="H28" s="15">
+        <v>59.57</v>
+      </c>
+      <c r="I28" s="16">
+        <v>64.8</v>
+      </c>
+      <c r="J28" s="15">
+        <v>36.54</v>
+      </c>
+      <c r="K28" s="15">
         <v>24.05</v>
       </c>
-      <c r="F28" s="18">
+      <c r="L28" s="15">
         <v>0.295420867254572</v>
       </c>
-      <c r="G28" s="18">
+      <c r="M28" s="15">
         <v>53.69</v>
       </c>
-      <c r="H28" s="18">
+      <c r="N28" s="15">
         <v>47.55</v>
       </c>
-      <c r="I28" s="18">
+      <c r="O28" s="15">
         <v>0.918225271117199</v>
       </c>
-      <c r="J28" s="19">
+      <c r="P28" s="16">
         <v>65.3</v>
       </c>
-      <c r="K28" s="18">
+      <c r="Q28" s="15">
         <v>4.57</v>
       </c>
-      <c r="L28" s="18">
+      <c r="R28" s="15">
         <v>0.574260804168007</v>
       </c>
-      <c r="M28" s="18">
+      <c r="S28" s="15">
         <v>59.57</v>
       </c>
-      <c r="N28" s="18">
+      <c r="T28" s="15">
         <v>49.26</v>
       </c>
-      <c r="O28" s="18">
+      <c r="U28" s="15">
         <v>0.88798576175837</v>
       </c>
-      <c r="P28" s="19">
+      <c r="V28" s="16">
         <v>64.8</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="W28" s="16">
         <v>24677</v>
       </c>
-      <c r="R28" s="18">
+      <c r="X28" s="15">
         <v>-1.07640020326984</v>
       </c>
-      <c r="S28" s="18">
+      <c r="Y28" s="15">
         <v>36.54</v>
-      </c>
-      <c r="T28" s="18">
-        <v>55.98</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>31</v>
       </c>
-      <c r="B29" t="s" s="15">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s" s="15">
-        <v>75</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="B29" t="s" s="14">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s" s="14">
+        <v>80</v>
+      </c>
+      <c r="D29" s="13">
         <v>2022</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
+        <v>64.52</v>
+      </c>
+      <c r="F29" s="15">
+        <v>55.26</v>
+      </c>
+      <c r="G29" s="15">
+        <v>78.14</v>
+      </c>
+      <c r="H29" s="15">
+        <v>64.58</v>
+      </c>
+      <c r="I29" s="15">
+        <v>75.97</v>
+      </c>
+      <c r="J29" s="15">
+        <v>48.65</v>
+      </c>
+      <c r="K29" s="15">
         <v>23.44</v>
       </c>
-      <c r="F29" s="18">
+      <c r="L29" s="15">
         <v>0.420827335720174</v>
       </c>
-      <c r="G29" s="18">
+      <c r="M29" s="15">
         <v>55.26</v>
       </c>
-      <c r="H29" s="18">
+      <c r="N29" s="15">
         <v>52.16</v>
       </c>
-      <c r="I29" s="18">
+      <c r="O29" s="15">
         <v>1.68836697751954</v>
       </c>
-      <c r="J29" s="18">
+      <c r="P29" s="15">
         <v>78.14</v>
       </c>
-      <c r="K29" s="18">
+      <c r="Q29" s="15">
         <v>4.24</v>
       </c>
-      <c r="L29" s="18">
+      <c r="R29" s="15">
         <v>0.875064082541726</v>
       </c>
-      <c r="M29" s="18">
+      <c r="S29" s="15">
         <v>64.58</v>
       </c>
-      <c r="N29" s="18">
+      <c r="T29" s="15">
         <v>45.39</v>
       </c>
-      <c r="O29" s="18">
+      <c r="U29" s="15">
         <v>1.55811622864184</v>
       </c>
-      <c r="P29" s="18">
+      <c r="V29" s="15">
         <v>75.97</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="W29" s="16">
         <v>28683</v>
       </c>
-      <c r="R29" s="18">
+      <c r="X29" s="15">
         <v>-0.108219146892606</v>
       </c>
-      <c r="S29" s="18">
+      <c r="Y29" s="15">
         <v>48.65</v>
-      </c>
-      <c r="T29" s="18">
-        <v>64.52</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="14">
+      <c r="A30" s="13">
         <v>32</v>
       </c>
-      <c r="B30" t="s" s="15">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s" s="15">
-        <v>77</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="B30" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s" s="14">
+        <v>82</v>
+      </c>
+      <c r="D30" s="13">
         <v>2022</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
+        <v>53.26</v>
+      </c>
+      <c r="F30" s="15">
+        <v>58.09</v>
+      </c>
+      <c r="G30" s="15">
+        <v>53.41</v>
+      </c>
+      <c r="H30" s="15">
+        <v>36.02</v>
+      </c>
+      <c r="I30" s="15">
+        <v>57.09</v>
+      </c>
+      <c r="J30" s="15">
+        <v>61.66</v>
+      </c>
+      <c r="K30" s="15">
         <v>22.34</v>
       </c>
-      <c r="F30" s="18">
+      <c r="L30" s="15">
         <v>0.646970147707327</v>
       </c>
-      <c r="G30" s="18">
+      <c r="M30" s="15">
         <v>58.09</v>
       </c>
-      <c r="H30" s="18">
+      <c r="N30" s="15">
         <v>43.28</v>
       </c>
-      <c r="I30" s="18">
+      <c r="O30" s="15">
         <v>0.204883603798764</v>
       </c>
-      <c r="J30" s="18">
+      <c r="P30" s="15">
         <v>53.41</v>
       </c>
-      <c r="K30" s="18">
+      <c r="Q30" s="15">
         <v>6.12</v>
       </c>
-      <c r="L30" s="18">
+      <c r="R30" s="15">
         <v>-0.838603079102487</v>
       </c>
-      <c r="M30" s="18">
+      <c r="S30" s="15">
         <v>36.02</v>
       </c>
-      <c r="N30" s="18">
+      <c r="T30" s="15">
         <v>51.93</v>
       </c>
-      <c r="O30" s="18">
+      <c r="U30" s="15">
         <v>0.425647687706981</v>
       </c>
-      <c r="P30" s="18">
+      <c r="V30" s="15">
         <v>57.09</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="W30" s="16">
         <v>32991</v>
       </c>
-      <c r="R30" s="18">
+      <c r="X30" s="15">
         <v>0.932950096959892</v>
       </c>
-      <c r="S30" s="18">
+      <c r="Y30" s="15">
         <v>61.66</v>
-      </c>
-      <c r="T30" s="18">
-        <v>53.26</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="14">
+      <c r="A31" s="13">
         <v>33</v>
       </c>
-      <c r="B31" t="s" s="15">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s" s="15">
-        <v>79</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="B31" t="s" s="14">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s" s="14">
+        <v>84</v>
+      </c>
+      <c r="D31" s="13">
         <v>2022</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
+        <v>57.43</v>
+      </c>
+      <c r="F31" s="15">
+        <v>61.35</v>
+      </c>
+      <c r="G31" s="15">
+        <v>59.15</v>
+      </c>
+      <c r="H31" s="15">
+        <v>56.08</v>
+      </c>
+      <c r="I31" s="15">
+        <v>57.73</v>
+      </c>
+      <c r="J31" s="15">
+        <v>52.87</v>
+      </c>
+      <c r="K31" s="15">
         <v>21.07</v>
       </c>
-      <c r="F31" s="18">
+      <c r="L31" s="15">
         <v>0.908062303365222</v>
       </c>
-      <c r="G31" s="18">
+      <c r="M31" s="15">
         <v>61.35</v>
       </c>
-      <c r="H31" s="18">
+      <c r="N31" s="15">
         <v>45.34</v>
       </c>
-      <c r="I31" s="18">
+      <c r="O31" s="15">
         <v>0.549025017071827</v>
       </c>
-      <c r="J31" s="18">
+      <c r="P31" s="15">
         <v>59.15</v>
       </c>
-      <c r="K31" s="19">
+      <c r="Q31" s="16">
         <v>4.8</v>
       </c>
-      <c r="L31" s="18">
+      <c r="R31" s="15">
         <v>0.364610034392386</v>
       </c>
-      <c r="M31" s="18">
+      <c r="S31" s="15">
         <v>56.08</v>
       </c>
-      <c r="N31" s="18">
+      <c r="T31" s="15">
         <v>51.71</v>
       </c>
-      <c r="O31" s="18">
+      <c r="U31" s="15">
         <v>0.463742959726197</v>
       </c>
-      <c r="P31" s="18">
+      <c r="V31" s="15">
         <v>57.73</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="W31" s="16">
         <v>30080</v>
       </c>
-      <c r="R31" s="18">
+      <c r="X31" s="15">
         <v>0.229411640865504</v>
       </c>
-      <c r="S31" s="18">
+      <c r="Y31" s="15">
         <v>52.87</v>
-      </c>
-      <c r="T31" s="18">
-        <v>57.43</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="14">
+      <c r="A32" s="13">
         <v>34</v>
       </c>
-      <c r="B32" t="s" s="15">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s" s="15">
-        <v>81</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="B32" t="s" s="14">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s" s="14">
+        <v>86</v>
+      </c>
+      <c r="D32" s="13">
         <v>2022</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
+        <v>52.58</v>
+      </c>
+      <c r="F32" s="15">
+        <v>63.46</v>
+      </c>
+      <c r="G32" s="16">
+        <v>48.9</v>
+      </c>
+      <c r="H32" s="15">
+        <v>33.74</v>
+      </c>
+      <c r="I32" s="15">
+        <v>51.61</v>
+      </c>
+      <c r="J32" s="16">
+        <v>65.2</v>
+      </c>
+      <c r="K32" s="15">
         <v>20.25</v>
       </c>
-      <c r="F32" s="18">
+      <c r="L32" s="15">
         <v>1.07664149048292</v>
       </c>
-      <c r="G32" s="18">
+      <c r="M32" s="15">
         <v>63.46</v>
       </c>
-      <c r="H32" s="18">
+      <c r="N32" s="15">
         <v>41.66</v>
       </c>
-      <c r="I32" s="18">
+      <c r="O32" s="15">
         <v>-0.06575187654218891</v>
       </c>
-      <c r="J32" s="19">
+      <c r="P32" s="16">
         <v>48.9</v>
       </c>
-      <c r="K32" s="18">
+      <c r="Q32" s="15">
         <v>6.27</v>
       </c>
-      <c r="L32" s="18">
+      <c r="R32" s="15">
         <v>-0.975331841999631</v>
       </c>
-      <c r="M32" s="18">
+      <c r="S32" s="15">
         <v>33.74</v>
       </c>
-      <c r="N32" s="18">
+      <c r="T32" s="15">
         <v>53.83</v>
       </c>
-      <c r="O32" s="18">
+      <c r="U32" s="15">
         <v>0.0966430657228475</v>
       </c>
-      <c r="P32" s="18">
+      <c r="V32" s="15">
         <v>51.61</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="W32" s="16">
         <v>34161</v>
       </c>
-      <c r="R32" s="18">
+      <c r="X32" s="15">
         <v>1.21571890274156</v>
       </c>
-      <c r="S32" s="19">
+      <c r="Y32" s="16">
         <v>65.2</v>
-      </c>
-      <c r="T32" s="18">
-        <v>52.58</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>35</v>
       </c>
-      <c r="B33" t="s" s="15">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s" s="15">
-        <v>83</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="B33" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s" s="14">
+        <v>88</v>
+      </c>
+      <c r="D33" s="13">
         <v>2022</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
+        <v>39.24</v>
+      </c>
+      <c r="F33" s="15">
+        <v>38.71</v>
+      </c>
+      <c r="G33" s="15">
+        <v>35.87</v>
+      </c>
+      <c r="H33" s="15">
+        <v>47.11</v>
+      </c>
+      <c r="I33" s="15">
+        <v>36.89</v>
+      </c>
+      <c r="J33" s="15">
+        <v>37.62</v>
+      </c>
+      <c r="K33" s="15">
         <v>29.88</v>
       </c>
-      <c r="F33" s="18">
+      <c r="L33" s="15">
         <v>-0.903136036277337</v>
       </c>
-      <c r="G33" s="18">
+      <c r="M33" s="15">
         <v>38.71</v>
       </c>
-      <c r="H33" s="18">
+      <c r="N33" s="15">
         <v>36.98</v>
       </c>
-      <c r="I33" s="18">
+      <c r="O33" s="15">
         <v>-0.847587708638273</v>
       </c>
-      <c r="J33" s="18">
+      <c r="P33" s="15">
         <v>35.87</v>
       </c>
-      <c r="K33" s="18">
+      <c r="Q33" s="15">
         <v>5.39</v>
       </c>
-      <c r="L33" s="18">
+      <c r="R33" s="15">
         <v>-0.173189766336383</v>
       </c>
-      <c r="M33" s="18">
+      <c r="S33" s="15">
         <v>47.11</v>
       </c>
-      <c r="N33" s="18">
+      <c r="T33" s="15">
         <v>58.93</v>
       </c>
-      <c r="O33" s="18">
+      <c r="U33" s="15">
         <v>-0.786474603813513</v>
       </c>
-      <c r="P33" s="18">
+      <c r="V33" s="15">
         <v>36.89</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="W33" s="16">
         <v>25032</v>
       </c>
-      <c r="R33" s="18">
+      <c r="X33" s="15">
         <v>-0.990602830575399</v>
       </c>
-      <c r="S33" s="18">
+      <c r="Y33" s="15">
         <v>37.62</v>
-      </c>
-      <c r="T33" s="18">
-        <v>39.24</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>36</v>
       </c>
-      <c r="B34" t="s" s="15">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s" s="15">
-        <v>85</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="B34" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="D34" s="13">
         <v>2022</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
+        <v>41.34</v>
+      </c>
+      <c r="F34" s="15">
+        <v>40.74</v>
+      </c>
+      <c r="G34" s="16">
+        <v>33.9</v>
+      </c>
+      <c r="H34" s="15">
+        <v>39.67</v>
+      </c>
+      <c r="I34" s="15">
+        <v>35.28</v>
+      </c>
+      <c r="J34" s="15">
+        <v>57.12</v>
+      </c>
+      <c r="K34" s="15">
         <v>29.09</v>
       </c>
-      <c r="F34" s="18">
+      <c r="L34" s="15">
         <v>-0.740724380395655</v>
       </c>
-      <c r="G34" s="18">
+      <c r="M34" s="15">
         <v>40.74</v>
       </c>
-      <c r="H34" s="18">
+      <c r="N34" s="15">
         <v>36.27</v>
       </c>
-      <c r="I34" s="18">
+      <c r="O34" s="15">
         <v>-0.966199554960541</v>
       </c>
-      <c r="J34" s="19">
+      <c r="P34" s="16">
         <v>33.9</v>
       </c>
-      <c r="K34" s="18">
+      <c r="Q34" s="15">
         <v>5.88</v>
       </c>
-      <c r="L34" s="18">
+      <c r="R34" s="15">
         <v>-0.6198370584670549</v>
       </c>
-      <c r="M34" s="18">
+      <c r="S34" s="15">
         <v>39.67</v>
       </c>
-      <c r="N34" s="18">
+      <c r="T34" s="15">
         <v>59.49</v>
       </c>
-      <c r="O34" s="18">
+      <c r="U34" s="15">
         <v>-0.8834443871351531</v>
       </c>
-      <c r="P34" s="18">
+      <c r="V34" s="15">
         <v>35.28</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="W34" s="16">
         <v>31488</v>
       </c>
-      <c r="R34" s="18">
+      <c r="X34" s="15">
         <v>0.569700938763442</v>
       </c>
-      <c r="S34" s="18">
+      <c r="Y34" s="15">
         <v>57.12</v>
-      </c>
-      <c r="T34" s="18">
-        <v>41.34</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>37</v>
       </c>
-      <c r="B35" t="s" s="15">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s" s="15">
-        <v>87</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="B35" t="s" s="14">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s" s="14">
+        <v>92</v>
+      </c>
+      <c r="D35" s="13">
         <v>2022</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
+        <v>45.92</v>
+      </c>
+      <c r="F35" s="15">
+        <v>50.71</v>
+      </c>
+      <c r="G35" s="15">
+        <v>38.46</v>
+      </c>
+      <c r="H35" s="15">
+        <v>55.77</v>
+      </c>
+      <c r="I35" s="15">
+        <v>37.21</v>
+      </c>
+      <c r="J35" s="15">
+        <v>47.44</v>
+      </c>
+      <c r="K35" s="15">
         <v>25.21</v>
       </c>
-      <c r="F35" s="18">
+      <c r="L35" s="15">
         <v>0.0569429927953924</v>
       </c>
-      <c r="G35" s="18">
+      <c r="M35" s="15">
         <v>50.71</v>
       </c>
-      <c r="H35" s="18">
+      <c r="N35" s="15">
         <v>37.91</v>
       </c>
-      <c r="I35" s="18">
+      <c r="O35" s="15">
         <v>-0.692222895849948</v>
       </c>
-      <c r="J35" s="18">
+      <c r="P35" s="15">
         <v>38.46</v>
       </c>
-      <c r="K35" s="18">
+      <c r="Q35" s="15">
         <v>4.82</v>
       </c>
-      <c r="L35" s="18">
+      <c r="R35" s="15">
         <v>0.346379532672766</v>
       </c>
-      <c r="M35" s="18">
+      <c r="S35" s="15">
         <v>55.77</v>
       </c>
-      <c r="N35" s="18">
+      <c r="T35" s="15">
         <v>58.82</v>
       </c>
-      <c r="O35" s="18">
+      <c r="U35" s="15">
         <v>-0.767426967803905</v>
       </c>
-      <c r="P35" s="18">
+      <c r="V35" s="15">
         <v>37.21</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="W35" s="16">
         <v>28284</v>
       </c>
-      <c r="R35" s="18">
+      <c r="X35" s="15">
         <v>-0.204650560146354</v>
       </c>
-      <c r="S35" s="18">
+      <c r="Y35" s="15">
         <v>47.44</v>
-      </c>
-      <c r="T35" s="18">
-        <v>45.92</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>38</v>
       </c>
-      <c r="B36" t="s" s="15">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s" s="15">
-        <v>89</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="B36" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="D36" s="13">
         <v>2022</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
+        <v>70.97</v>
+      </c>
+      <c r="F36" s="15">
+        <v>54.08</v>
+      </c>
+      <c r="G36" s="15">
+        <v>90.45</v>
+      </c>
+      <c r="H36" s="15">
+        <v>68.08</v>
+      </c>
+      <c r="I36" s="15">
+        <v>87.73999999999999</v>
+      </c>
+      <c r="J36" s="15">
+        <v>54.51</v>
+      </c>
+      <c r="K36" s="15">
         <v>23.9</v>
       </c>
-      <c r="F36" s="18">
+      <c r="L36" s="15">
         <v>0.326258523434638</v>
       </c>
-      <c r="G36" s="18">
+      <c r="M36" s="15">
         <v>54.08</v>
       </c>
-      <c r="H36" s="18">
+      <c r="N36" s="15">
         <v>56.58</v>
       </c>
-      <c r="I36" s="18">
+      <c r="O36" s="15">
         <v>2.42676748561028</v>
       </c>
-      <c r="J36" s="18">
+      <c r="P36" s="15">
         <v>90.45</v>
       </c>
-      <c r="K36" s="18">
+      <c r="Q36" s="15">
         <v>4.01</v>
       </c>
-      <c r="L36" s="18">
+      <c r="R36" s="15">
         <v>1.08471485231735</v>
       </c>
-      <c r="M36" s="18">
+      <c r="S36" s="15">
         <v>68.08</v>
       </c>
-      <c r="N36" s="18">
+      <c r="T36" s="15">
         <v>41.31</v>
       </c>
-      <c r="O36" s="18">
+      <c r="U36" s="15">
         <v>2.26461036427093</v>
       </c>
-      <c r="P36" s="18">
+      <c r="V36" s="15">
         <v>87.73999999999999</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="W36" s="16">
         <v>30625</v>
       </c>
-      <c r="R36" s="18">
+      <c r="X36" s="15">
         <v>0.361128734156965</v>
       </c>
-      <c r="S36" s="18">
+      <c r="Y36" s="15">
         <v>54.51</v>
-      </c>
-      <c r="T36" s="18">
-        <v>70.97</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>39</v>
       </c>
-      <c r="B37" t="s" s="15">
-        <v>90</v>
-      </c>
-      <c r="C37" t="s" s="15">
-        <v>91</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="B37" t="s" s="14">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="D37" s="13">
         <v>2022</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
+        <v>45.1</v>
+      </c>
+      <c r="F37" s="15">
+        <v>41.92</v>
+      </c>
+      <c r="G37" s="15">
+        <v>45.37</v>
+      </c>
+      <c r="H37" s="15">
+        <v>51.67</v>
+      </c>
+      <c r="I37" s="15">
+        <v>45.17</v>
+      </c>
+      <c r="J37" s="15">
+        <v>41.35</v>
+      </c>
+      <c r="K37" s="15">
         <v>28.63</v>
       </c>
-      <c r="F37" s="18">
+      <c r="L37" s="15">
         <v>-0.646155568110118</v>
       </c>
-      <c r="G37" s="18">
+      <c r="M37" s="15">
         <v>41.92</v>
       </c>
-      <c r="H37" s="18">
+      <c r="N37" s="15">
         <v>40.39</v>
       </c>
-      <c r="I37" s="18">
+      <c r="O37" s="15">
         <v>-0.277916728414416</v>
       </c>
-      <c r="J37" s="18">
+      <c r="P37" s="15">
         <v>45.37</v>
       </c>
-      <c r="K37" s="18">
+      <c r="Q37" s="15">
         <v>5.09</v>
       </c>
-      <c r="L37" s="18">
+      <c r="R37" s="15">
         <v>0.100267759457906</v>
       </c>
-      <c r="M37" s="18">
+      <c r="S37" s="15">
         <v>51.67</v>
       </c>
-      <c r="N37" s="18">
+      <c r="T37" s="15">
         <v>56.06</v>
       </c>
-      <c r="O37" s="18">
+      <c r="U37" s="15">
         <v>-0.289504464290111</v>
       </c>
-      <c r="P37" s="18">
+      <c r="V37" s="15">
         <v>45.17</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="W37" s="16">
         <v>26266</v>
       </c>
-      <c r="R37" s="18">
+      <c r="X37" s="15">
         <v>-0.692366329434734</v>
       </c>
-      <c r="S37" s="18">
+      <c r="Y37" s="15">
         <v>41.35</v>
-      </c>
-      <c r="T37" s="18">
-        <v>45.1</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="14">
+      <c r="A38" s="13">
         <v>40</v>
       </c>
-      <c r="B38" t="s" s="15">
-        <v>92</v>
-      </c>
-      <c r="C38" t="s" s="15">
-        <v>93</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="B38" t="s" s="14">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s" s="14">
+        <v>98</v>
+      </c>
+      <c r="D38" s="13">
         <v>2022</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
+        <v>51.22</v>
+      </c>
+      <c r="F38" s="15">
+        <v>49.66</v>
+      </c>
+      <c r="G38" s="15">
+        <v>50.38</v>
+      </c>
+      <c r="H38" s="15">
+        <v>56.08</v>
+      </c>
+      <c r="I38" s="15">
+        <v>49.91</v>
+      </c>
+      <c r="J38" s="15">
+        <v>50.06</v>
+      </c>
+      <c r="K38" s="15">
         <v>25.62</v>
       </c>
-      <c r="F38" s="18">
+      <c r="L38" s="15">
         <v>-0.0273466007634554</v>
       </c>
-      <c r="G38" s="18">
+      <c r="M38" s="15">
         <v>49.66</v>
       </c>
-      <c r="H38" s="18">
+      <c r="N38" s="15">
         <v>42.19</v>
       </c>
-      <c r="I38" s="18">
+      <c r="O38" s="15">
         <v>0.022789360853308</v>
       </c>
-      <c r="J38" s="18">
+      <c r="P38" s="15">
         <v>50.38</v>
       </c>
-      <c r="K38" s="19">
+      <c r="Q38" s="16">
         <v>4.8</v>
       </c>
-      <c r="L38" s="18">
+      <c r="R38" s="15">
         <v>0.364610034392386</v>
       </c>
-      <c r="M38" s="18">
+      <c r="S38" s="15">
         <v>56.08</v>
       </c>
-      <c r="N38" s="18">
+      <c r="T38" s="15">
         <v>54.42</v>
       </c>
-      <c r="O38" s="18">
+      <c r="U38" s="15">
         <v>-0.0055215274195947</v>
       </c>
-      <c r="P38" s="18">
+      <c r="V38" s="15">
         <v>49.91</v>
       </c>
-      <c r="Q38" s="19">
+      <c r="W38" s="16">
         <v>29149</v>
       </c>
-      <c r="R38" s="18">
+      <c r="X38" s="15">
         <v>0.0044050099400921</v>
       </c>
-      <c r="S38" s="18">
+      <c r="Y38" s="15">
         <v>50.06</v>
-      </c>
-      <c r="T38" s="18">
-        <v>51.22</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>41</v>
       </c>
-      <c r="B39" t="s" s="15">
-        <v>94</v>
-      </c>
-      <c r="C39" t="s" s="15">
-        <v>95</v>
-      </c>
-      <c r="D39" s="16">
+      <c r="B39" t="s" s="14">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s" s="14">
+        <v>100</v>
+      </c>
+      <c r="D39" s="13">
         <v>2022</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
+        <v>47.57</v>
+      </c>
+      <c r="F39" s="15">
+        <v>45.52</v>
+      </c>
+      <c r="G39" s="15">
+        <v>53.64</v>
+      </c>
+      <c r="H39" s="15">
+        <v>38.15</v>
+      </c>
+      <c r="I39" s="15">
+        <v>54.99</v>
+      </c>
+      <c r="J39" s="15">
+        <v>45.54</v>
+      </c>
+      <c r="K39" s="15">
         <v>27.23</v>
       </c>
-      <c r="F39" s="18">
+      <c r="L39" s="15">
         <v>-0.358337443762833</v>
       </c>
-      <c r="G39" s="18">
+      <c r="M39" s="15">
         <v>45.52</v>
       </c>
-      <c r="H39" s="18">
+      <c r="N39" s="15">
         <v>43.36</v>
       </c>
-      <c r="I39" s="18">
+      <c r="O39" s="15">
         <v>0.218248318877329</v>
       </c>
-      <c r="J39" s="18">
+      <c r="P39" s="15">
         <v>53.64</v>
       </c>
-      <c r="K39" s="18">
+      <c r="Q39" s="15">
         <v>5.98</v>
       </c>
-      <c r="L39" s="18">
+      <c r="R39" s="15">
         <v>-0.710989567065152</v>
       </c>
-      <c r="M39" s="18">
+      <c r="S39" s="15">
         <v>38.15</v>
       </c>
-      <c r="N39" s="18">
+      <c r="T39" s="15">
         <v>52.66</v>
       </c>
-      <c r="O39" s="18">
+      <c r="U39" s="15">
         <v>0.29924064873413</v>
       </c>
-      <c r="P39" s="18">
+      <c r="V39" s="15">
         <v>54.99</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="W39" s="16">
         <v>27654</v>
       </c>
-      <c r="R39" s="18">
+      <c r="X39" s="15">
         <v>-0.356910686336483</v>
       </c>
-      <c r="S39" s="18">
+      <c r="Y39" s="15">
         <v>45.54</v>
-      </c>
-      <c r="T39" s="18">
-        <v>47.57</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="14">
+      <c r="A40" s="13">
         <v>42</v>
       </c>
-      <c r="B40" t="s" s="15">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s" s="15">
-        <v>97</v>
-      </c>
-      <c r="D40" s="16">
+      <c r="B40" t="s" s="14">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s" s="14">
+        <v>102</v>
+      </c>
+      <c r="D40" s="13">
         <v>2022</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
+        <v>44.78</v>
+      </c>
+      <c r="F40" s="15">
+        <v>46.81</v>
+      </c>
+      <c r="G40" s="15">
+        <v>44.56</v>
+      </c>
+      <c r="H40" s="15">
+        <v>41.34</v>
+      </c>
+      <c r="I40" s="15">
+        <v>45.38</v>
+      </c>
+      <c r="J40" s="15">
+        <v>45.81</v>
+      </c>
+      <c r="K40" s="15">
         <v>26.73</v>
       </c>
-      <c r="F40" s="18">
+      <c r="L40" s="15">
         <v>-0.255545256495946</v>
       </c>
-      <c r="G40" s="18">
+      <c r="M40" s="15">
         <v>46.81</v>
       </c>
-      <c r="H40" s="19">
+      <c r="N40" s="16">
         <v>40.1</v>
       </c>
-      <c r="I40" s="18">
+      <c r="O40" s="15">
         <v>-0.326363820574216</v>
       </c>
-      <c r="J40" s="18">
+      <c r="P40" s="15">
         <v>44.56</v>
       </c>
-      <c r="K40" s="18">
+      <c r="Q40" s="15">
         <v>5.77</v>
       </c>
-      <c r="L40" s="18">
+      <c r="R40" s="15">
         <v>-0.5195692990091491</v>
       </c>
-      <c r="M40" s="18">
+      <c r="S40" s="15">
         <v>41.34</v>
       </c>
-      <c r="N40" s="18">
+      <c r="T40" s="15">
         <v>55.99</v>
       </c>
-      <c r="O40" s="18">
+      <c r="U40" s="15">
         <v>-0.277383241374906</v>
       </c>
-      <c r="P40" s="18">
+      <c r="V40" s="15">
         <v>45.38</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="W40" s="16">
         <v>27743</v>
       </c>
-      <c r="R40" s="18">
+      <c r="X40" s="15">
         <v>-0.335400922477877</v>
       </c>
-      <c r="S40" s="18">
+      <c r="Y40" s="15">
         <v>45.81</v>
-      </c>
-      <c r="T40" s="18">
-        <v>44.78</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>44</v>
       </c>
-      <c r="B41" t="s" s="15">
-        <v>98</v>
-      </c>
-      <c r="C41" t="s" s="15">
-        <v>99</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="B41" t="s" s="14">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s" s="14">
+        <v>104</v>
+      </c>
+      <c r="D41" s="13">
         <v>2022</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
+        <v>47.76</v>
+      </c>
+      <c r="F41" s="15">
+        <v>49.79</v>
+      </c>
+      <c r="G41" s="15">
+        <v>47.62</v>
+      </c>
+      <c r="H41" s="15">
+        <v>39.52</v>
+      </c>
+      <c r="I41" s="15">
+        <v>50.28</v>
+      </c>
+      <c r="J41" s="15">
+        <v>51.59</v>
+      </c>
+      <c r="K41" s="15">
         <v>25.57</v>
       </c>
-      <c r="F41" s="18">
+      <c r="L41" s="15">
         <v>-0.0170673820367665</v>
       </c>
-      <c r="G41" s="18">
+      <c r="M41" s="15">
         <v>49.79</v>
       </c>
-      <c r="H41" s="19">
+      <c r="N41" s="16">
         <v>41.2</v>
       </c>
-      <c r="I41" s="18">
+      <c r="O41" s="15">
         <v>-0.14259898824394</v>
       </c>
-      <c r="J41" s="18">
+      <c r="P41" s="15">
         <v>47.62</v>
       </c>
-      <c r="K41" s="18">
+      <c r="Q41" s="15">
         <v>5.89</v>
       </c>
-      <c r="L41" s="18">
+      <c r="R41" s="15">
         <v>-0.628952309326865</v>
       </c>
-      <c r="M41" s="18">
+      <c r="S41" s="15">
         <v>39.52</v>
       </c>
-      <c r="N41" s="18">
+      <c r="T41" s="15">
         <v>54.29</v>
       </c>
-      <c r="O41" s="18">
+      <c r="U41" s="15">
         <v>0.0169893151372149</v>
       </c>
-      <c r="P41" s="18">
+      <c r="V41" s="15">
         <v>50.28</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="W41" s="16">
         <v>29656</v>
       </c>
-      <c r="R41" s="18">
+      <c r="X41" s="15">
         <v>0.126938159112148</v>
       </c>
-      <c r="S41" s="18">
+      <c r="Y41" s="15">
         <v>51.59</v>
-      </c>
-      <c r="T41" s="18">
-        <v>47.76</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>45</v>
       </c>
-      <c r="B42" t="s" s="15">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s" s="15">
-        <v>101</v>
-      </c>
-      <c r="D42" s="16">
+      <c r="B42" t="s" s="14">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s" s="14">
+        <v>106</v>
+      </c>
+      <c r="D42" s="13">
         <v>2022</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
+        <v>45.2</v>
+      </c>
+      <c r="F42" s="15">
+        <v>50.69</v>
+      </c>
+      <c r="G42" s="15">
+        <v>35.32</v>
+      </c>
+      <c r="H42" s="15">
+        <v>57.44</v>
+      </c>
+      <c r="I42" s="15">
+        <v>33.98</v>
+      </c>
+      <c r="J42" s="15">
+        <v>48.56</v>
+      </c>
+      <c r="K42" s="15">
         <v>25.22</v>
       </c>
-      <c r="F42" s="18">
+      <c r="L42" s="15">
         <v>0.0548871490500551</v>
       </c>
-      <c r="G42" s="18">
+      <c r="M42" s="15">
         <v>50.69</v>
       </c>
-      <c r="H42" s="18">
+      <c r="N42" s="15">
         <v>36.78</v>
       </c>
-      <c r="I42" s="18">
+      <c r="O42" s="15">
         <v>-0.880999496334686</v>
       </c>
-      <c r="J42" s="18">
+      <c r="P42" s="15">
         <v>35.32</v>
       </c>
-      <c r="K42" s="18">
+      <c r="Q42" s="15">
         <v>4.71</v>
       </c>
-      <c r="L42" s="18">
+      <c r="R42" s="15">
         <v>0.446647292130673</v>
       </c>
-      <c r="M42" s="18">
+      <c r="S42" s="15">
         <v>57.44</v>
       </c>
-      <c r="N42" s="18">
+      <c r="T42" s="15">
         <v>59.94</v>
       </c>
-      <c r="O42" s="18">
+      <c r="U42" s="15">
         <v>-0.961366534447184</v>
       </c>
-      <c r="P42" s="18">
+      <c r="V42" s="15">
         <v>33.98</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="W42" s="16">
         <v>28655</v>
       </c>
-      <c r="R42" s="18">
+      <c r="X42" s="15">
         <v>-0.114986263612167</v>
       </c>
-      <c r="S42" s="18">
+      <c r="Y42" s="15">
         <v>48.56</v>
-      </c>
-      <c r="T42" s="18">
-        <v>45.2</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="14">
+      <c r="A43" s="13">
         <v>46</v>
       </c>
-      <c r="B43" t="s" s="15">
-        <v>102</v>
-      </c>
-      <c r="C43" t="s" s="15">
-        <v>103</v>
-      </c>
-      <c r="D43" s="16">
+      <c r="B43" t="s" s="14">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s" s="14">
+        <v>108</v>
+      </c>
+      <c r="D43" s="13">
         <v>2022</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
+        <v>63.94</v>
+      </c>
+      <c r="F43" s="15">
+        <v>51.05</v>
+      </c>
+      <c r="G43" s="15">
+        <v>80.53</v>
+      </c>
+      <c r="H43" s="15">
+        <v>70.51000000000001</v>
+      </c>
+      <c r="I43" s="15">
+        <v>78.05</v>
+      </c>
+      <c r="J43" s="15">
+        <v>39.56</v>
+      </c>
+      <c r="K43" s="15">
         <v>25.08</v>
       </c>
-      <c r="F43" s="18">
+      <c r="L43" s="15">
         <v>0.0836689614847837</v>
       </c>
-      <c r="G43" s="18">
+      <c r="M43" s="15">
         <v>51.05</v>
       </c>
-      <c r="H43" s="18">
+      <c r="N43" s="15">
         <v>53.02</v>
       </c>
-      <c r="I43" s="18">
+      <c r="O43" s="15">
         <v>1.83203766461412</v>
       </c>
-      <c r="J43" s="18">
+      <c r="P43" s="15">
         <v>80.53</v>
       </c>
-      <c r="K43" s="18">
+      <c r="Q43" s="15">
         <v>3.85</v>
       </c>
-      <c r="L43" s="18">
+      <c r="R43" s="15">
         <v>1.2305588660743</v>
       </c>
-      <c r="M43" s="18">
+      <c r="S43" s="15">
         <v>70.51000000000001</v>
       </c>
-      <c r="N43" s="18">
+      <c r="T43" s="15">
         <v>44.67</v>
       </c>
-      <c r="O43" s="18">
+      <c r="U43" s="15">
         <v>1.68279166434109</v>
       </c>
-      <c r="P43" s="18">
+      <c r="V43" s="15">
         <v>78.05</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="W43" s="16">
         <v>25674</v>
       </c>
-      <c r="R43" s="18">
+      <c r="X43" s="15">
         <v>-0.835442511505458</v>
       </c>
-      <c r="S43" s="18">
+      <c r="Y43" s="15">
         <v>39.56</v>
-      </c>
-      <c r="T43" s="18">
-        <v>63.94</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="14">
+      <c r="A44" s="13">
         <v>47</v>
       </c>
-      <c r="B44" t="s" s="15">
-        <v>104</v>
-      </c>
-      <c r="C44" t="s" s="15">
-        <v>105</v>
-      </c>
-      <c r="D44" s="16">
+      <c r="B44" t="s" s="14">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s" s="14">
+        <v>110</v>
+      </c>
+      <c r="D44" s="13">
         <v>2022</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
+        <v>45.05</v>
+      </c>
+      <c r="F44" s="15">
+        <v>46.29</v>
+      </c>
+      <c r="G44" s="15">
+        <v>36.37</v>
+      </c>
+      <c r="H44" s="15">
+        <v>57.29</v>
+      </c>
+      <c r="I44" s="15">
+        <v>35.74</v>
+      </c>
+      <c r="J44" s="15">
+        <v>49.53</v>
+      </c>
+      <c r="K44" s="15">
         <v>26.93</v>
       </c>
-      <c r="F44" s="18">
+      <c r="L44" s="15">
         <v>-0.296662131402701</v>
       </c>
-      <c r="G44" s="18">
+      <c r="M44" s="15">
         <v>46.29</v>
       </c>
-      <c r="H44" s="18">
+      <c r="N44" s="15">
         <v>37.16</v>
       </c>
-      <c r="I44" s="18">
+      <c r="O44" s="15">
         <v>-0.8175170997115</v>
       </c>
-      <c r="J44" s="18">
+      <c r="P44" s="15">
         <v>36.37</v>
       </c>
-      <c r="K44" s="18">
+      <c r="Q44" s="15">
         <v>4.72</v>
       </c>
-      <c r="L44" s="18">
+      <c r="R44" s="15">
         <v>0.437532041270863</v>
       </c>
-      <c r="M44" s="18">
+      <c r="S44" s="15">
         <v>57.29</v>
       </c>
-      <c r="N44" s="18">
+      <c r="T44" s="15">
         <v>59.33</v>
       </c>
-      <c r="O44" s="18">
+      <c r="U44" s="15">
         <v>-0.855738734757541</v>
       </c>
-      <c r="P44" s="18">
+      <c r="V44" s="15">
         <v>35.74</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="W44" s="16">
         <v>28975</v>
       </c>
-      <c r="R44" s="18">
+      <c r="X44" s="15">
         <v>-0.0376477868171815</v>
       </c>
-      <c r="S44" s="18">
+      <c r="Y44" s="15">
         <v>49.53</v>
-      </c>
-      <c r="T44" s="18">
-        <v>45.05</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="14">
+      <c r="A45" s="13">
         <v>48</v>
       </c>
-      <c r="B45" t="s" s="15">
-        <v>106</v>
-      </c>
-      <c r="C45" t="s" s="15">
-        <v>107</v>
-      </c>
-      <c r="D45" s="16">
+      <c r="B45" t="s" s="14">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s" s="14">
+        <v>112</v>
+      </c>
+      <c r="D45" s="13">
         <v>2022</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
+        <v>56.66</v>
+      </c>
+      <c r="F45" s="15">
+        <v>58.65</v>
+      </c>
+      <c r="G45" s="16">
+        <v>59.6</v>
+      </c>
+      <c r="H45" s="15">
+        <v>51.37</v>
+      </c>
+      <c r="I45" s="16">
+        <v>59.6</v>
+      </c>
+      <c r="J45" s="15">
+        <v>54.08</v>
+      </c>
+      <c r="K45" s="15">
         <v>22.12</v>
       </c>
-      <c r="F45" s="18">
+      <c r="L45" s="15">
         <v>0.692198710104758</v>
       </c>
-      <c r="G45" s="18">
+      <c r="M45" s="15">
         <v>58.65</v>
       </c>
-      <c r="H45" s="19">
+      <c r="N45" s="16">
         <v>45.5</v>
       </c>
-      <c r="I45" s="18">
+      <c r="O45" s="15">
         <v>0.575754447228957</v>
       </c>
-      <c r="J45" s="19">
+      <c r="P45" s="16">
         <v>59.6</v>
       </c>
-      <c r="K45" s="18">
+      <c r="Q45" s="15">
         <v>5.11</v>
       </c>
-      <c r="L45" s="18">
+      <c r="R45" s="15">
         <v>0.0820372577382866</v>
       </c>
-      <c r="M45" s="18">
+      <c r="S45" s="15">
         <v>51.37</v>
       </c>
-      <c r="N45" s="18">
+      <c r="T45" s="15">
         <v>51.06</v>
       </c>
-      <c r="O45" s="18">
+      <c r="U45" s="15">
         <v>0.576297172510243</v>
       </c>
-      <c r="P45" s="19">
+      <c r="V45" s="16">
         <v>59.6</v>
       </c>
-      <c r="Q45" s="19">
+      <c r="W45" s="16">
         <v>30480</v>
       </c>
-      <c r="R45" s="18">
+      <c r="X45" s="15">
         <v>0.326084736859237</v>
       </c>
-      <c r="S45" s="18">
+      <c r="Y45" s="15">
         <v>54.08</v>
-      </c>
-      <c r="T45" s="18">
-        <v>56.66</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="14">
+      <c r="A46" s="13">
         <v>49</v>
       </c>
-      <c r="B46" t="s" s="15">
-        <v>108</v>
-      </c>
-      <c r="C46" t="s" s="15">
-        <v>109</v>
-      </c>
-      <c r="D46" s="16">
+      <c r="B46" t="s" s="14">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="D46" s="13">
         <v>2022</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
+        <v>69.84</v>
+      </c>
+      <c r="F46" s="15">
+        <v>69.09</v>
+      </c>
+      <c r="G46" s="15">
+        <v>83.34999999999999</v>
+      </c>
+      <c r="H46" s="15">
+        <v>69.45</v>
+      </c>
+      <c r="I46" s="15">
+        <v>78.28</v>
+      </c>
+      <c r="J46" s="15">
+        <v>49.06</v>
+      </c>
+      <c r="K46" s="15">
         <v>18.06</v>
       </c>
-      <c r="F46" s="18">
+      <c r="L46" s="15">
         <v>1.52687127071189</v>
       </c>
-      <c r="G46" s="18">
+      <c r="M46" s="15">
         <v>69.09</v>
       </c>
-      <c r="H46" s="18">
+      <c r="N46" s="15">
         <v>54.03</v>
       </c>
-      <c r="I46" s="18">
+      <c r="O46" s="15">
         <v>2.00076719248101</v>
       </c>
-      <c r="J46" s="18">
+      <c r="P46" s="15">
         <v>83.34999999999999</v>
       </c>
-      <c r="K46" s="18">
+      <c r="Q46" s="15">
         <v>3.92</v>
       </c>
-      <c r="L46" s="18">
+      <c r="R46" s="15">
         <v>1.16675211005563</v>
       </c>
-      <c r="M46" s="18">
+      <c r="S46" s="15">
         <v>69.45</v>
       </c>
-      <c r="N46" s="18">
+      <c r="T46" s="15">
         <v>44.59</v>
       </c>
-      <c r="O46" s="18">
+      <c r="U46" s="15">
         <v>1.6966444905299</v>
       </c>
-      <c r="P46" s="18">
+      <c r="V46" s="15">
         <v>78.28</v>
       </c>
-      <c r="Q46" s="19">
+      <c r="W46" s="16">
         <v>28818</v>
       </c>
-      <c r="R46" s="18">
+      <c r="X46" s="15">
         <v>-0.0755919769947215</v>
       </c>
-      <c r="S46" s="18">
+      <c r="Y46" s="15">
         <v>49.06</v>
-      </c>
-      <c r="T46" s="18">
-        <v>69.84</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="14">
+      <c r="A47" s="13">
         <v>50</v>
       </c>
-      <c r="B47" t="s" s="15">
-        <v>110</v>
-      </c>
-      <c r="C47" t="s" s="15">
-        <v>111</v>
-      </c>
-      <c r="D47" s="16">
+      <c r="B47" t="s" s="14">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s" s="14">
+        <v>116</v>
+      </c>
+      <c r="D47" s="13">
         <v>2022</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="15">
+        <v>47.41</v>
+      </c>
+      <c r="F47" s="15">
+        <v>46.78</v>
+      </c>
+      <c r="G47" s="15">
+        <v>52.27</v>
+      </c>
+      <c r="H47" s="15">
+        <v>55.62</v>
+      </c>
+      <c r="I47" s="15">
+        <v>48.44</v>
+      </c>
+      <c r="J47" s="15">
+        <v>33.92</v>
+      </c>
+      <c r="K47" s="15">
         <v>26.74</v>
       </c>
-      <c r="F47" s="18">
+      <c r="L47" s="15">
         <v>-0.257601100241283</v>
       </c>
-      <c r="G47" s="18">
+      <c r="M47" s="15">
         <v>46.78</v>
       </c>
-      <c r="H47" s="18">
+      <c r="N47" s="15">
         <v>42.87</v>
       </c>
-      <c r="I47" s="18">
+      <c r="O47" s="15">
         <v>0.136389439021115</v>
       </c>
-      <c r="J47" s="18">
+      <c r="P47" s="15">
         <v>52.27</v>
       </c>
-      <c r="K47" s="18">
+      <c r="Q47" s="15">
         <v>4.83</v>
       </c>
-      <c r="L47" s="18">
+      <c r="R47" s="15">
         <v>0.337264281812957</v>
       </c>
-      <c r="M47" s="18">
+      <c r="S47" s="15">
         <v>55.62</v>
       </c>
-      <c r="N47" s="18">
+      <c r="T47" s="15">
         <v>54.93</v>
       </c>
-      <c r="O47" s="18">
+      <c r="U47" s="15">
         <v>-0.0938332943732304</v>
       </c>
-      <c r="P47" s="18">
+      <c r="V47" s="15">
         <v>48.44</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="W47" s="16">
         <v>23809</v>
       </c>
-      <c r="R47" s="18">
+      <c r="X47" s="15">
         <v>-1.28618082157624</v>
       </c>
-      <c r="S47" s="18">
+      <c r="Y47" s="15">
         <v>33.92</v>
-      </c>
-      <c r="T47" s="18">
-        <v>47.41</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="14">
+      <c r="A48" s="13">
         <v>51</v>
       </c>
-      <c r="B48" t="s" s="15">
-        <v>112</v>
-      </c>
-      <c r="C48" t="s" s="15">
-        <v>113</v>
-      </c>
-      <c r="D48" s="16">
+      <c r="B48" t="s" s="14">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s" s="14">
+        <v>118</v>
+      </c>
+      <c r="D48" s="13">
         <v>2022</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="15">
+        <v>58.4</v>
+      </c>
+      <c r="F48" s="15">
+        <v>61.15</v>
+      </c>
+      <c r="G48" s="15">
+        <v>55.36</v>
+      </c>
+      <c r="H48" s="15">
+        <v>60.03</v>
+      </c>
+      <c r="I48" s="15">
+        <v>53.11</v>
+      </c>
+      <c r="J48" s="15">
+        <v>62.36</v>
+      </c>
+      <c r="K48" s="15">
         <v>21.15</v>
       </c>
-      <c r="F48" s="18">
+      <c r="L48" s="15">
         <v>0.89161555340252</v>
       </c>
-      <c r="G48" s="18">
+      <c r="M48" s="15">
         <v>61.15</v>
       </c>
-      <c r="H48" s="18">
+      <c r="N48" s="15">
         <v>43.98</v>
       </c>
-      <c r="I48" s="18">
+      <c r="O48" s="15">
         <v>0.321824860736212</v>
       </c>
-      <c r="J48" s="18">
+      <c r="P48" s="15">
         <v>55.36</v>
       </c>
-      <c r="K48" s="18">
+      <c r="Q48" s="15">
         <v>4.54</v>
       </c>
-      <c r="L48" s="18">
+      <c r="R48" s="15">
         <v>0.601606556747437</v>
       </c>
-      <c r="M48" s="18">
+      <c r="S48" s="15">
         <v>60.03</v>
       </c>
-      <c r="N48" s="18">
+      <c r="T48" s="15">
         <v>53.31</v>
       </c>
-      <c r="O48" s="18">
+      <c r="U48" s="15">
         <v>0.186686435950084</v>
       </c>
-      <c r="P48" s="18">
+      <c r="V48" s="15">
         <v>53.11</v>
       </c>
-      <c r="Q48" s="19">
+      <c r="W48" s="16">
         <v>33221</v>
       </c>
-      <c r="R48" s="18">
+      <c r="X48" s="15">
         <v>0.9885371271562881</v>
       </c>
-      <c r="S48" s="18">
+      <c r="Y48" s="15">
         <v>62.36</v>
-      </c>
-      <c r="T48" s="18">
-        <v>58.4</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="14">
+      <c r="A49" s="13">
         <v>53</v>
       </c>
-      <c r="B49" t="s" s="15">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s" s="15">
-        <v>115</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="B49" t="s" s="14">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s" s="14">
+        <v>120</v>
+      </c>
+      <c r="D49" s="13">
         <v>2022</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="15">
+        <v>55.93</v>
+      </c>
+      <c r="F49" s="15">
+        <v>56.98</v>
+      </c>
+      <c r="G49" s="15">
+        <v>54.03</v>
+      </c>
+      <c r="H49" s="15">
+        <v>45.29</v>
+      </c>
+      <c r="I49" s="15">
+        <v>55.25</v>
+      </c>
+      <c r="J49" s="15">
+        <v>68.12</v>
+      </c>
+      <c r="K49" s="15">
         <v>22.77</v>
       </c>
-      <c r="F49" s="18">
+      <c r="L49" s="15">
         <v>0.558568866657804</v>
       </c>
-      <c r="G49" s="18">
+      <c r="M49" s="15">
         <v>56.98</v>
       </c>
-      <c r="H49" s="19">
+      <c r="N49" s="16">
         <v>43.5</v>
       </c>
-      <c r="I49" s="18">
+      <c r="O49" s="15">
         <v>0.241636570264819</v>
       </c>
-      <c r="J49" s="18">
+      <c r="P49" s="15">
         <v>54.03</v>
       </c>
-      <c r="K49" s="18">
+      <c r="Q49" s="15">
         <v>5.51</v>
       </c>
-      <c r="L49" s="18">
+      <c r="R49" s="15">
         <v>-0.282572776654099</v>
       </c>
-      <c r="M49" s="18">
+      <c r="S49" s="15">
         <v>45.29</v>
       </c>
-      <c r="N49" s="18">
+      <c r="T49" s="15">
         <v>52.57</v>
       </c>
-      <c r="O49" s="18">
+      <c r="U49" s="15">
         <v>0.314825078196536</v>
       </c>
-      <c r="P49" s="18">
+      <c r="V49" s="15">
         <v>55.25</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="W49" s="16">
         <v>35130</v>
       </c>
-      <c r="R49" s="18">
+      <c r="X49" s="15">
         <v>1.44990947778638</v>
       </c>
-      <c r="S49" s="18">
+      <c r="Y49" s="15">
         <v>68.12</v>
-      </c>
-      <c r="T49" s="18">
-        <v>55.93</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="14">
+      <c r="A50" s="13">
         <v>54</v>
       </c>
-      <c r="B50" t="s" s="15">
-        <v>116</v>
-      </c>
-      <c r="C50" t="s" s="15">
-        <v>117</v>
-      </c>
-      <c r="D50" s="16">
+      <c r="B50" t="s" s="14">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s" s="14">
+        <v>122</v>
+      </c>
+      <c r="D50" s="13">
         <v>2022</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="15">
+        <v>36.04</v>
+      </c>
+      <c r="F50" s="15">
+        <v>37.63</v>
+      </c>
+      <c r="G50" s="15">
+        <v>19.42</v>
+      </c>
+      <c r="H50" s="15">
+        <v>62.76</v>
+      </c>
+      <c r="I50" s="15">
+        <v>16.98</v>
+      </c>
+      <c r="J50" s="15">
+        <v>43.43</v>
+      </c>
+      <c r="K50" s="15">
         <v>30.3</v>
       </c>
-      <c r="F50" s="18">
+      <c r="L50" s="15">
         <v>-0.9894814735815231</v>
       </c>
-      <c r="G50" s="18">
+      <c r="M50" s="15">
         <v>37.63</v>
       </c>
-      <c r="H50" s="18">
+      <c r="N50" s="15">
         <v>31.07</v>
       </c>
-      <c r="I50" s="18">
+      <c r="O50" s="15">
         <v>-1.8349060350673</v>
       </c>
-      <c r="J50" s="18">
+      <c r="P50" s="15">
         <v>19.42</v>
       </c>
-      <c r="K50" s="18">
+      <c r="Q50" s="15">
         <v>4.36</v>
       </c>
-      <c r="L50" s="18">
+      <c r="R50" s="15">
         <v>0.7656810722240101</v>
       </c>
-      <c r="M50" s="18">
+      <c r="S50" s="15">
         <v>62.76</v>
       </c>
-      <c r="N50" s="18">
+      <c r="T50" s="15">
         <v>65.83</v>
       </c>
-      <c r="O50" s="18">
+      <c r="U50" s="15">
         <v>-1.981280862598</v>
       </c>
-      <c r="P50" s="18">
+      <c r="V50" s="15">
         <v>16.98</v>
       </c>
-      <c r="Q50" s="19">
+      <c r="W50" s="16">
         <v>26955</v>
       </c>
-      <c r="R50" s="18">
+      <c r="X50" s="15">
         <v>-0.52584692158553</v>
       </c>
-      <c r="S50" s="18">
+      <c r="Y50" s="15">
         <v>43.43</v>
-      </c>
-      <c r="T50" s="18">
-        <v>36.04</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="14">
+      <c r="A51" s="13">
         <v>55</v>
       </c>
-      <c r="B51" t="s" s="15">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s" s="15">
-        <v>119</v>
-      </c>
-      <c r="D51" s="16">
+      <c r="B51" t="s" s="14">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s" s="14">
+        <v>124</v>
+      </c>
+      <c r="D51" s="13">
         <v>2022</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
+        <v>56.66</v>
+      </c>
+      <c r="F51" s="15">
+        <v>54.26</v>
+      </c>
+      <c r="G51" s="15">
+        <v>60.77</v>
+      </c>
+      <c r="H51" s="15">
+        <v>67.17</v>
+      </c>
+      <c r="I51" s="15">
+        <v>57.82</v>
+      </c>
+      <c r="J51" s="15">
+        <v>43.29</v>
+      </c>
+      <c r="K51" s="15">
         <v>23.83</v>
       </c>
-      <c r="F51" s="18">
+      <c r="L51" s="15">
         <v>0.340649429652003</v>
       </c>
-      <c r="G51" s="18">
+      <c r="M51" s="15">
         <v>54.26</v>
       </c>
-      <c r="H51" s="18">
+      <c r="N51" s="15">
         <v>45.92</v>
       </c>
-      <c r="I51" s="18">
+      <c r="O51" s="15">
         <v>0.645919201391427</v>
       </c>
-      <c r="J51" s="18">
+      <c r="P51" s="15">
         <v>60.77</v>
       </c>
-      <c r="K51" s="18">
+      <c r="Q51" s="15">
         <v>4.07</v>
       </c>
-      <c r="L51" s="18">
+      <c r="R51" s="15">
         <v>1.03002334715849</v>
       </c>
-      <c r="M51" s="18">
+      <c r="S51" s="15">
         <v>67.17</v>
       </c>
-      <c r="N51" s="18">
+      <c r="T51" s="15">
         <v>51.68</v>
       </c>
-      <c r="O51" s="18">
+      <c r="U51" s="15">
         <v>0.468937769546999</v>
       </c>
-      <c r="P51" s="18">
+      <c r="V51" s="15">
         <v>57.82</v>
       </c>
-      <c r="Q51" s="19">
+      <c r="W51" s="16">
         <v>26910</v>
       </c>
-      <c r="R51" s="18">
+      <c r="X51" s="15">
         <v>-0.536722644884825</v>
       </c>
-      <c r="S51" s="18">
+      <c r="Y51" s="15">
         <v>43.29</v>
-      </c>
-      <c r="T51" s="18">
-        <v>56.66</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="14">
+      <c r="A52" s="13">
         <v>56</v>
       </c>
-      <c r="B52" t="s" s="15">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s" s="15">
-        <v>121</v>
-      </c>
-      <c r="D52" s="16">
+      <c r="B52" t="s" s="14">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s" s="14">
+        <v>126</v>
+      </c>
+      <c r="D52" s="13">
         <v>2022</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
+        <v>62.83</v>
+      </c>
+      <c r="F52" s="15">
+        <v>61.81</v>
+      </c>
+      <c r="G52" s="15">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="H52" s="15">
+        <v>62.91</v>
+      </c>
+      <c r="I52" s="16">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J52" s="15">
+        <v>47.16</v>
+      </c>
+      <c r="K52" s="15">
         <v>20.89</v>
       </c>
-      <c r="F52" s="18">
+      <c r="L52" s="15">
         <v>0.945067490781301</v>
       </c>
-      <c r="G52" s="18">
+      <c r="M52" s="15">
         <v>61.81</v>
       </c>
-      <c r="H52" s="19">
+      <c r="N52" s="16">
         <v>49.9</v>
       </c>
-      <c r="I52" s="18">
+      <c r="O52" s="15">
         <v>1.31081377655006</v>
       </c>
-      <c r="J52" s="18">
+      <c r="P52" s="15">
         <v>71.84999999999999</v>
       </c>
-      <c r="K52" s="18">
+      <c r="Q52" s="15">
         <v>4.35</v>
       </c>
-      <c r="L52" s="18">
+      <c r="R52" s="15">
         <v>0.77479632308382</v>
       </c>
-      <c r="M52" s="18">
+      <c r="S52" s="15">
         <v>62.91</v>
       </c>
-      <c r="N52" s="18">
+      <c r="T52" s="15">
         <v>47.32</v>
       </c>
-      <c r="O52" s="18">
+      <c r="U52" s="15">
         <v>1.22391679683691</v>
       </c>
-      <c r="P52" s="19">
+      <c r="V52" s="16">
         <v>70.40000000000001</v>
       </c>
-      <c r="Q52" s="19">
+      <c r="W52" s="16">
         <v>28190</v>
       </c>
-      <c r="R52" s="18">
+      <c r="X52" s="15">
         <v>-0.227368737704881</v>
       </c>
-      <c r="S52" s="18">
+      <c r="Y52" s="15">
         <v>47.16</v>
-      </c>
-      <c r="T52" s="18">
-        <v>62.83</v>
       </c>
     </row>
   </sheetData>
